--- a/computed_files/1_3_krypton/mie_results_vle_sle_sve_fluid.xlsx
+++ b/computed_files/1_3_krypton/mie_results_vle_sle_sve_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8223033168948682</v>
       </c>
       <c r="D2">
-        <v>216.0477517980064</v>
+        <v>216.047751798006</v>
       </c>
       <c r="E2">
-        <v>6971301.877198316</v>
+        <v>6971301.877198247</v>
       </c>
       <c r="F2">
-        <v>11431.11215836542</v>
+        <v>11431.11215836534</v>
       </c>
       <c r="G2">
         <v>3.656883528211334</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>69.13406860971989</v>
       </c>
@@ -585,18 +597,24 @@
         <v>0.0971598719690388</v>
       </c>
       <c r="M2">
+        <v>0.0971598719690388</v>
+      </c>
+      <c r="N2">
         <v>1044.089128923287</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>70.61802338457615</v>
+        <v>70.61802338457613</v>
       </c>
       <c r="B3">
-        <v>62.07531073942847</v>
+        <v>62.07531073942829</v>
       </c>
       <c r="C3">
-        <v>0.1057302059488641</v>
+        <v>0.1057302059488638</v>
       </c>
       <c r="D3">
         <v>35467.75674411899</v>
@@ -608,10 +626,10 @@
         <v>11790.16337831262</v>
       </c>
       <c r="G3">
-        <v>46.02014411169552</v>
+        <v>46.02014411169554</v>
       </c>
       <c r="H3">
-        <v>147.6953047132931</v>
+        <v>147.6953047132932</v>
       </c>
       <c r="I3">
         <v>9.887786425759433E-10</v>
@@ -626,18 +644,24 @@
         <v>0.09643585188204762</v>
       </c>
       <c r="M3">
+        <v>0.09643585188204762</v>
+      </c>
+      <c r="N3">
         <v>990.0228080725109</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>72.10197815943239</v>
+        <v>72.10197815943238</v>
       </c>
       <c r="B4">
-        <v>95.43872856095128</v>
+        <v>95.43872856095116</v>
       </c>
       <c r="C4">
-        <v>0.1592159946669993</v>
+        <v>0.1592159946669991</v>
       </c>
       <c r="D4">
         <v>35089.64033578214</v>
@@ -649,7 +673,7 @@
         <v>11563.42678226192</v>
       </c>
       <c r="G4">
-        <v>47.88300872112364</v>
+        <v>47.88300872112369</v>
       </c>
       <c r="H4">
         <v>141.1116856168433</v>
@@ -667,65 +691,77 @@
         <v>0.09581975864782058</v>
       </c>
       <c r="M4">
-        <v>951.1962134036564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.09581975864782058</v>
+      </c>
+      <c r="N4">
+        <v>951.1962134036561</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>73.58593293428864</v>
+        <v>73.58593293428862</v>
       </c>
       <c r="B5">
-        <v>143.1998136916129</v>
+        <v>143.1998136916121</v>
       </c>
       <c r="C5">
-        <v>0.2340857803315988</v>
+        <v>0.2340857803315976</v>
       </c>
       <c r="D5">
         <v>34732.03557588903</v>
       </c>
       <c r="E5">
-        <v>11958.57611185576</v>
+        <v>11958.57611185577</v>
       </c>
       <c r="F5">
-        <v>11346.8394725961</v>
+        <v>11346.83947259611</v>
       </c>
       <c r="G5">
-        <v>48.39805653149503</v>
+        <v>48.39805653149511</v>
       </c>
       <c r="H5">
-        <v>134.0426670418464</v>
+        <v>134.0426670418466</v>
       </c>
       <c r="I5">
         <v>1.027613182433225E-09</v>
       </c>
       <c r="J5">
-        <v>4.395457148642367E-10</v>
+        <v>4.395457148642371E-10</v>
       </c>
       <c r="K5">
-        <v>0.001761118357149384</v>
+        <v>0.001761118357149382</v>
       </c>
       <c r="L5">
-        <v>0.0953046216552608</v>
+        <v>0.09530462165526078</v>
       </c>
       <c r="M5">
-        <v>922.2069005240304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.09530462165526078</v>
+      </c>
+      <c r="N5">
+        <v>922.2069005240303</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>75.06988770914489</v>
+        <v>75.06988770914487</v>
       </c>
       <c r="B6">
-        <v>210.0917409715337</v>
+        <v>210.0917409715333</v>
       </c>
       <c r="C6">
-        <v>0.3366623218079982</v>
+        <v>0.3366623218079975</v>
       </c>
       <c r="D6">
-        <v>34393.22020824362</v>
+        <v>34393.22020824363</v>
       </c>
       <c r="E6">
-        <v>11764.97815917466</v>
+        <v>11764.97815917467</v>
       </c>
       <c r="F6">
         <v>11140.94133992445</v>
@@ -734,33 +770,39 @@
         <v>47.89193342019481</v>
       </c>
       <c r="H6">
-        <v>126.7196051342955</v>
+        <v>126.7196051342956</v>
       </c>
       <c r="I6">
         <v>1.046871016017334E-09</v>
       </c>
       <c r="J6">
-        <v>4.535866624707141E-10</v>
+        <v>4.535866624707137E-10</v>
       </c>
       <c r="K6">
         <v>0.00175302026443637</v>
       </c>
       <c r="L6">
-        <v>0.09488364163312311</v>
+        <v>0.09488364163312313</v>
       </c>
       <c r="M6">
-        <v>899.9471224889262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.09488364163312313</v>
+      </c>
+      <c r="N6">
+        <v>899.9471224889263</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>76.55384248400114</v>
+        <v>76.55384248400111</v>
       </c>
       <c r="B7">
-        <v>301.9210523748279</v>
+        <v>301.9210523748324</v>
       </c>
       <c r="C7">
-        <v>0.4744698804437582</v>
+        <v>0.4744698804437653</v>
       </c>
       <c r="D7">
         <v>34071.6296762925</v>
@@ -772,77 +814,89 @@
         <v>10945.96200255276</v>
       </c>
       <c r="G7">
-        <v>46.63547067260165</v>
+        <v>46.63547067260172</v>
       </c>
       <c r="H7">
-        <v>119.3294039259564</v>
+        <v>119.3294039259565</v>
       </c>
       <c r="I7">
         <v>1.0661095229371E-09</v>
       </c>
       <c r="J7">
-        <v>4.683188737697176E-10</v>
+        <v>4.683188737697175E-10</v>
       </c>
       <c r="K7">
         <v>0.001737346729992262</v>
       </c>
       <c r="L7">
-        <v>0.09454988968996897</v>
+        <v>0.094549889689969</v>
       </c>
       <c r="M7">
-        <v>882.4882455827897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.094549889689969</v>
+      </c>
+      <c r="N7">
+        <v>882.4882455827893</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>78.03779725885738</v>
+        <v>78.03779725885735</v>
       </c>
       <c r="B8">
-        <v>425.6967892657545</v>
+        <v>425.6967892657441</v>
       </c>
       <c r="C8">
-        <v>0.6563220353263596</v>
+        <v>0.6563220353263437</v>
       </c>
       <c r="D8">
-        <v>33765.84057933289</v>
+        <v>33765.8405793329</v>
       </c>
       <c r="E8">
-        <v>11410.48050360684</v>
+        <v>11410.48050360685</v>
       </c>
       <c r="F8">
-        <v>10761.88348578353</v>
+        <v>10761.88348578354</v>
       </c>
       <c r="G8">
-        <v>44.84963361237442</v>
+        <v>44.84963361237445</v>
       </c>
       <c r="H8">
-        <v>112.0190465359885</v>
+        <v>112.0190465359887</v>
       </c>
       <c r="I8">
-        <v>1.085393949624193E-09</v>
+        <v>1.085393949624194E-09</v>
       </c>
       <c r="J8">
-        <v>4.83805967118988E-10</v>
+        <v>4.838059671189875E-10</v>
       </c>
       <c r="K8">
-        <v>0.001713938641863071</v>
+        <v>0.001713938641863072</v>
       </c>
       <c r="L8">
         <v>0.09429606867166387</v>
       </c>
       <c r="M8">
-        <v>868.5605851925911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.09429606867166387</v>
+      </c>
+      <c r="N8">
+        <v>868.5605851925909</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>79.52175203371362</v>
+        <v>79.52175203371361</v>
       </c>
       <c r="B9">
-        <v>589.7578481247776</v>
+        <v>589.7578481247899</v>
       </c>
       <c r="C9">
-        <v>0.8923982735360698</v>
+        <v>0.8923982735360887</v>
       </c>
       <c r="D9">
         <v>33474.55607306412</v>
@@ -854,121 +908,139 @@
         <v>10588.49569335864</v>
       </c>
       <c r="G9">
-        <v>42.71184100610549</v>
+        <v>42.71184100610552</v>
       </c>
       <c r="H9">
-        <v>104.9006787187305</v>
+        <v>104.9006787187307</v>
       </c>
       <c r="I9">
         <v>1.104789139061351E-09</v>
       </c>
       <c r="J9">
-        <v>5.001152113490615E-10</v>
+        <v>5.001152113490614E-10</v>
       </c>
       <c r="K9">
-        <v>0.00168276139372978</v>
+        <v>0.001682761393729781</v>
       </c>
       <c r="L9">
-        <v>0.0941143616577704</v>
+        <v>0.09411436165777044</v>
       </c>
       <c r="M9">
-        <v>857.2869230268537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.09411436165777044</v>
+      </c>
+      <c r="N9">
+        <v>857.2869230268541</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>81.00570680856988</v>
+        <v>81.00570680856984</v>
       </c>
       <c r="B10">
-        <v>803.8970896041192</v>
+        <v>803.8970896040709</v>
       </c>
       <c r="C10">
-        <v>1.194308993944748</v>
+        <v>1.194308993944677</v>
       </c>
       <c r="D10">
         <v>33196.59295822064</v>
       </c>
       <c r="E10">
-        <v>11098.52645808053</v>
+        <v>11098.52645808052</v>
       </c>
       <c r="F10">
         <v>10425.44422221529</v>
       </c>
       <c r="G10">
-        <v>40.36220962191629</v>
+        <v>40.36220962191643</v>
       </c>
       <c r="H10">
-        <v>98.05677587686026</v>
+        <v>98.05677587686048</v>
       </c>
       <c r="I10">
-        <v>1.124359291458598E-09</v>
+        <v>1.124359291458596E-09</v>
       </c>
       <c r="J10">
-        <v>5.173176170472776E-10</v>
+        <v>5.173176170472765E-10</v>
       </c>
       <c r="K10">
         <v>0.001643936278401624</v>
       </c>
       <c r="L10">
-        <v>0.09399638248464952</v>
+        <v>0.09399638248464953</v>
       </c>
       <c r="M10">
-        <v>848.035807228443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.09399638248464953</v>
+      </c>
+      <c r="N10">
+        <v>848.0358072284433</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>82.48966158342614</v>
+        <v>82.4896615834261</v>
       </c>
       <c r="B11">
-        <v>1079.480886111062</v>
+        <v>1079.480886111059</v>
       </c>
       <c r="C11">
-        <v>1.575148900678676</v>
+        <v>1.575148900678672</v>
       </c>
       <c r="D11">
-        <v>32930.87023588784</v>
+        <v>32930.87023588785</v>
       </c>
       <c r="E11">
-        <v>10957.55776454269</v>
+        <v>10957.5577645427</v>
       </c>
       <c r="F11">
-        <v>10272.27064535422</v>
+        <v>10272.27064535423</v>
       </c>
       <c r="G11">
-        <v>37.90943373118481</v>
+        <v>37.90943373118479</v>
       </c>
       <c r="H11">
-        <v>91.5450828851689</v>
+        <v>91.54508288516901</v>
       </c>
       <c r="I11">
-        <v>1.144167813741108E-09</v>
+        <v>1.144167813741107E-09</v>
       </c>
       <c r="J11">
-        <v>5.354879981359268E-10</v>
+        <v>5.354879981359261E-10</v>
       </c>
       <c r="K11">
-        <v>0.001597773813434095</v>
+        <v>0.001597773813434098</v>
       </c>
       <c r="L11">
-        <v>0.09393323072293626</v>
+        <v>0.09393323072293629</v>
       </c>
       <c r="M11">
-        <v>840.3361364102294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.09393323072293629</v>
+      </c>
+      <c r="N11">
+        <v>840.3361364102302</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>83.97361635828237</v>
+        <v>83.97361635828233</v>
       </c>
       <c r="B12">
-        <v>1429.562934050644</v>
+        <v>1429.562934050622</v>
       </c>
       <c r="C12">
-        <v>2.049539022513398</v>
+        <v>2.049539022513367</v>
       </c>
       <c r="D12">
-        <v>32676.39894284512</v>
+        <v>32676.39894284513</v>
       </c>
       <c r="E12">
         <v>10825.90662336941</v>
@@ -977,241 +1049,277 @@
         <v>10128.44575392131</v>
       </c>
       <c r="G12">
-        <v>35.43613083250531</v>
+        <v>35.43613083250542</v>
       </c>
       <c r="H12">
-        <v>85.40314014345935</v>
+        <v>85.40314014345958</v>
       </c>
       <c r="I12">
-        <v>1.164277249345663E-09</v>
+        <v>1.164277249345662E-09</v>
       </c>
       <c r="J12">
-        <v>5.547049964578453E-10</v>
+        <v>5.547049964578441E-10</v>
       </c>
       <c r="K12">
-        <v>0.001544802924093618</v>
+        <v>0.00154480292409362</v>
       </c>
       <c r="L12">
-        <v>0.09391564069153231</v>
+        <v>0.09391564069153233</v>
       </c>
       <c r="M12">
-        <v>833.8252049462429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.09391564069153233</v>
+      </c>
+      <c r="N12">
+        <v>833.8252049462433</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>85.45757113313861</v>
+        <v>85.45757113313859</v>
       </c>
       <c r="B13">
-        <v>1868.991276018502</v>
+        <v>1868.991276018471</v>
       </c>
       <c r="C13">
-        <v>2.633657777882796</v>
+        <v>2.633657777882753</v>
       </c>
       <c r="D13">
-        <v>32432.27310651323</v>
+        <v>32432.27310651324</v>
       </c>
       <c r="E13">
         <v>10702.99491536099</v>
       </c>
       <c r="F13">
-        <v>9993.396454771324</v>
+        <v>9993.396454771333</v>
       </c>
       <c r="G13">
-        <v>33.00357428445253</v>
+        <v>33.0035742844526</v>
       </c>
       <c r="H13">
-        <v>79.6523009525967</v>
+        <v>79.6523009525969</v>
       </c>
       <c r="I13">
-        <v>1.184749279506437E-09</v>
+        <v>1.184749279506436E-09</v>
       </c>
       <c r="J13">
-        <v>5.750510616489098E-10</v>
+        <v>5.750510616489097E-10</v>
       </c>
       <c r="K13">
-        <v>0.001485788182858848</v>
+        <v>0.001485788182858849</v>
       </c>
       <c r="L13">
         <v>0.09393420309569432</v>
       </c>
       <c r="M13">
-        <v>828.2160357250298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.09393420309569432</v>
+      </c>
+      <c r="N13">
+        <v>828.2160357250302</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>86.94152590799487</v>
+        <v>86.94152590799482</v>
       </c>
       <c r="B14">
-        <v>2414.50758995656</v>
+        <v>2414.507589956524</v>
       </c>
       <c r="C14">
-        <v>3.345261642664315</v>
+        <v>3.345261642664268</v>
       </c>
       <c r="D14">
-        <v>32197.661681863</v>
+        <v>32197.66168186301</v>
       </c>
       <c r="E14">
         <v>10588.22155032779</v>
       </c>
       <c r="F14">
-        <v>9866.527110192681</v>
+        <v>9866.527110192679</v>
       </c>
       <c r="G14">
-        <v>30.65579553175783</v>
+        <v>30.65579553175805</v>
       </c>
       <c r="H14">
-        <v>74.30120931708927</v>
+        <v>74.30120931708957</v>
       </c>
       <c r="I14">
-        <v>1.205644787153314E-09</v>
+        <v>1.205644787153315E-09</v>
       </c>
       <c r="J14">
-        <v>5.966123782617719E-10</v>
+        <v>5.966123782617713E-10</v>
       </c>
       <c r="K14">
-        <v>0.001421727003976442</v>
+        <v>0.001421727003976443</v>
       </c>
       <c r="L14">
-        <v>0.09397963053866221</v>
+        <v>0.09397963053866219</v>
       </c>
       <c r="M14">
-        <v>823.2763504780743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.09397963053866219</v>
+      </c>
+      <c r="N14">
+        <v>823.276350478073</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>88.42548068285113</v>
+        <v>88.42548068285107</v>
       </c>
       <c r="B15">
-        <v>3084.837912991894</v>
+        <v>3084.837912991843</v>
       </c>
       <c r="C15">
-        <v>4.203696084147054</v>
+        <v>4.203696084146987</v>
       </c>
       <c r="D15">
-        <v>31971.80135167728</v>
+        <v>31971.8013516773</v>
       </c>
       <c r="E15">
         <v>10480.97905645152</v>
       </c>
       <c r="F15">
-        <v>9747.236118669458</v>
+        <v>9747.236118669463</v>
       </c>
       <c r="G15">
-        <v>28.42307880388681</v>
+        <v>28.42307880388688</v>
       </c>
       <c r="H15">
-        <v>69.348749237896</v>
+        <v>69.34874923789626</v>
       </c>
       <c r="I15">
-        <v>1.227023974911289E-09</v>
+        <v>1.227023974911286E-09</v>
       </c>
       <c r="J15">
-        <v>6.194787320217395E-10</v>
+        <v>6.194787320217381E-10</v>
       </c>
       <c r="K15">
-        <v>0.001353820609946885</v>
+        <v>0.001353820609946889</v>
       </c>
       <c r="L15">
-        <v>0.09404303525806257</v>
+        <v>0.09404303525806258</v>
       </c>
       <c r="M15">
-        <v>818.8148324301777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.09404303525806258</v>
+      </c>
+      <c r="N15">
+        <v>818.8148324301787</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>89.90943545770737</v>
+        <v>89.9094354577073</v>
       </c>
       <c r="B16">
-        <v>3900.774083192737</v>
+        <v>3900.774083192734</v>
       </c>
       <c r="C16">
         <v>5.229897511293927</v>
       </c>
       <c r="D16">
-        <v>31753.99008759667</v>
+        <v>31753.99008759668</v>
       </c>
       <c r="E16">
-        <v>10380.66617580037</v>
+        <v>10380.66617580036</v>
       </c>
       <c r="F16">
         <v>9634.928498259982</v>
       </c>
       <c r="G16">
-        <v>26.32489496851891</v>
+        <v>26.32489496851895</v>
       </c>
       <c r="H16">
-        <v>64.78650190805723</v>
+        <v>64.7865019080574</v>
       </c>
       <c r="I16">
-        <v>1.248946529336616E-09</v>
+        <v>1.248946529336613E-09</v>
       </c>
       <c r="J16">
-        <v>6.43743307308221E-10</v>
+        <v>6.437433073082189E-10</v>
       </c>
       <c r="K16">
-        <v>0.001283416983545875</v>
+        <v>0.001283416983545879</v>
       </c>
       <c r="L16">
-        <v>0.09411618875008688</v>
+        <v>0.09411618875008693</v>
       </c>
       <c r="M16">
-        <v>814.672091441068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.09411618875008693</v>
+      </c>
+      <c r="N16">
+        <v>814.6720914410693</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>91.39339023256362</v>
+        <v>91.39339023256356</v>
       </c>
       <c r="B17">
-        <v>4885.245305765691</v>
+        <v>4885.245305765642</v>
       </c>
       <c r="C17">
-        <v>6.446387064976093</v>
+        <v>6.446387064976032</v>
       </c>
       <c r="D17">
-        <v>31543.58138294133</v>
+        <v>31543.58138294134</v>
       </c>
       <c r="E17">
-        <v>10286.69716150429</v>
+        <v>10286.6971615043</v>
       </c>
       <c r="F17">
-        <v>9529.025168490196</v>
+        <v>9529.025168490201</v>
       </c>
       <c r="G17">
-        <v>24.37233331066927</v>
+        <v>24.37233331066923</v>
       </c>
       <c r="H17">
-        <v>60.60076066047588</v>
+        <v>60.60076066047595</v>
       </c>
       <c r="I17">
-        <v>1.271471824359582E-09</v>
+        <v>1.271471824359581E-09</v>
       </c>
       <c r="J17">
-        <v>6.695024085337118E-10</v>
+        <v>6.695024085337112E-10</v>
       </c>
       <c r="K17">
-        <v>0.001211930183479511</v>
+        <v>0.001211930183479513</v>
       </c>
       <c r="L17">
-        <v>0.09419173754662766</v>
+        <v>0.09419173754662764</v>
       </c>
       <c r="M17">
-        <v>810.7147125749947</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.09419173754662764</v>
+      </c>
+      <c r="N17">
+        <v>810.7147125749962</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>92.87734500741986</v>
+        <v>92.87734500741981</v>
       </c>
       <c r="B18">
-        <v>6063.379381669241</v>
+        <v>6063.379381669133</v>
       </c>
       <c r="C18">
-        <v>7.877257134796483</v>
+        <v>7.877257134796349</v>
       </c>
       <c r="D18">
         <v>31339.9790798148</v>
@@ -1220,3431 +1328,3935 @@
         <v>10198.50839279896</v>
       </c>
       <c r="F18">
-        <v>9428.969547414974</v>
+        <v>9428.96954741497</v>
       </c>
       <c r="G18">
-        <v>22.5700941356534</v>
+        <v>22.57009413565335</v>
       </c>
       <c r="H18">
-        <v>56.77415881889437</v>
+        <v>56.77415881889436</v>
       </c>
       <c r="I18">
-        <v>1.294659157846909E-09</v>
+        <v>1.294659157846911E-09</v>
       </c>
       <c r="J18">
-        <v>6.968550991030858E-10</v>
+        <v>6.968550991030851E-10</v>
       </c>
       <c r="K18">
-        <v>0.001140746593752169</v>
+        <v>0.001140746593752172</v>
       </c>
       <c r="L18">
-        <v>0.09426335614490967</v>
+        <v>0.09426335614490966</v>
       </c>
       <c r="M18">
-        <v>806.8313266630331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.09426335614490966</v>
+      </c>
+      <c r="N18">
+        <v>806.8313266630329</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>94.36129978227612</v>
+        <v>94.36129978227605</v>
       </c>
       <c r="B19">
-        <v>7462.553274586</v>
+        <v>7462.553274585852</v>
       </c>
       <c r="C19">
-        <v>9.548151541489865</v>
+        <v>9.548151541489682</v>
       </c>
       <c r="D19">
-        <v>31142.63272281035</v>
+        <v>31142.63272281037</v>
       </c>
       <c r="E19">
         <v>10115.56284118074</v>
       </c>
       <c r="F19">
-        <v>9334.231997571189</v>
+        <v>9334.231997571191</v>
       </c>
       <c r="G19">
-        <v>20.918104115205</v>
+        <v>20.91810411520508</v>
       </c>
       <c r="H19">
-        <v>53.28696564526301</v>
+        <v>53.28696564526317</v>
       </c>
       <c r="I19">
-        <v>1.318568016187729E-09</v>
+        <v>1.318568016187727E-09</v>
       </c>
       <c r="J19">
-        <v>7.259027531343879E-10</v>
+        <v>7.259027531343858E-10</v>
       </c>
       <c r="K19">
-        <v>0.001071132681741542</v>
+        <v>0.001071132681741546</v>
       </c>
       <c r="L19">
         <v>0.09432582588621523</v>
       </c>
       <c r="M19">
-        <v>802.9299760967837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.09432582588621523</v>
+      </c>
+      <c r="N19">
+        <v>802.9299760967841</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>95.84525455713235</v>
+        <v>95.84525455713228</v>
       </c>
       <c r="B20">
-        <v>9112.432833624433</v>
+        <v>9112.432833624394</v>
       </c>
       <c r="C20">
-        <v>11.48624036448769</v>
+        <v>11.48624036448765</v>
       </c>
       <c r="D20">
-        <v>30951.03338004409</v>
+        <v>30951.0333800441</v>
       </c>
       <c r="E20">
-        <v>10037.35284049081</v>
+        <v>10037.35284049083</v>
       </c>
       <c r="F20">
-        <v>9244.312574142003</v>
+        <v>9244.312574142019</v>
       </c>
       <c r="G20">
-        <v>19.41281228390034</v>
+        <v>19.41281228390039</v>
       </c>
       <c r="H20">
-        <v>50.11810245144883</v>
+        <v>50.11810245144886</v>
       </c>
       <c r="I20">
-        <v>1.343258362800402E-09</v>
+        <v>1.3432583628004E-09</v>
       </c>
       <c r="J20">
-        <v>7.567485171460192E-10</v>
+        <v>7.567485171460169E-10</v>
       </c>
       <c r="K20">
-        <v>0.001004158992259155</v>
+        <v>0.001004158992259159</v>
       </c>
       <c r="L20">
-        <v>0.09437503656634701</v>
+        <v>0.09437503656634702</v>
       </c>
       <c r="M20">
-        <v>798.9362623215343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.09437503656634702</v>
+      </c>
+      <c r="N20">
+        <v>798.9362623215345</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>97.32920933198861</v>
+        <v>97.32920933198852</v>
       </c>
       <c r="B21">
-        <v>11045.00163022037</v>
+        <v>11045.00163022017</v>
       </c>
       <c r="C21">
-        <v>13.72019042159798</v>
+        <v>13.72019042159775</v>
       </c>
       <c r="D21">
-        <v>30764.70987946324</v>
+        <v>30764.70987946325</v>
       </c>
       <c r="E21">
-        <v>9963.401539441575</v>
+        <v>9963.401539441576</v>
       </c>
       <c r="F21">
-        <v>9158.74245435022</v>
+        <v>9158.742454350227</v>
       </c>
       <c r="G21">
-        <v>18.04821899087696</v>
+        <v>18.04821899087718</v>
       </c>
       <c r="H21">
-        <v>47.24592611092812</v>
+        <v>47.24592611092842</v>
       </c>
       <c r="I21">
-        <v>1.36879094742185E-09</v>
+        <v>1.368790947421847E-09</v>
       </c>
       <c r="J21">
-        <v>7.894966814748763E-10</v>
+        <v>7.894966814748746E-10</v>
       </c>
       <c r="K21">
-        <v>0.0009406512040805859</v>
+        <v>0.0009406512040805897</v>
       </c>
       <c r="L21">
         <v>0.09440791501083425</v>
       </c>
       <c r="M21">
-        <v>794.7919086928125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.09440791501083425</v>
+      </c>
+      <c r="N21">
+        <v>794.7919086928122</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>98.81316410684485</v>
+        <v>98.81316410684478</v>
       </c>
       <c r="B22">
-        <v>13294.57900452564</v>
+        <v>13294.57900452548</v>
       </c>
       <c r="C22">
-        <v>16.28013242077977</v>
+        <v>16.28013242077958</v>
       </c>
       <c r="D22">
-        <v>30583.22541461741</v>
+        <v>30583.22541461742</v>
       </c>
       <c r="E22">
-        <v>9893.263348689623</v>
+        <v>9893.263348689627</v>
       </c>
       <c r="F22">
-        <v>9077.084360678715</v>
+        <v>9077.084360678713</v>
       </c>
       <c r="G22">
-        <v>16.81668388173747</v>
+        <v>16.81668388173751</v>
       </c>
       <c r="H22">
-        <v>44.64882164394419</v>
+        <v>44.64882164394429</v>
       </c>
       <c r="I22">
         <v>1.395227633955876E-09</v>
       </c>
       <c r="J22">
-        <v>8.242519642621586E-10</v>
+        <v>8.242519642621567E-10</v>
       </c>
       <c r="K22">
-        <v>0.0008811725622652508</v>
+        <v>0.0008811725622652544</v>
       </c>
       <c r="L22">
-        <v>0.09442229112615282</v>
+        <v>0.09442229112615286</v>
       </c>
       <c r="M22">
-        <v>790.4534833893747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.09442229112615286</v>
+      </c>
+      <c r="N22">
+        <v>790.4534833893748</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>100.2971188817011</v>
+        <v>100.297118881701</v>
       </c>
       <c r="B23">
-        <v>15897.82754541044</v>
+        <v>15897.82754541004</v>
       </c>
       <c r="C23">
-        <v>19.19762580230364</v>
+        <v>19.19762580230319</v>
       </c>
       <c r="D23">
-        <v>30406.17447948608</v>
+        <v>30406.17447948609</v>
       </c>
       <c r="E23">
-        <v>9826.523636643909</v>
+        <v>9826.523636643908</v>
       </c>
       <c r="F23">
-        <v>8998.9322325747</v>
+        <v>8998.932232574696</v>
       </c>
       <c r="G23">
         <v>15.70955273688895</v>
       </c>
       <c r="H23">
-        <v>42.30563988027804</v>
+        <v>42.30563988027811</v>
       </c>
       <c r="I23">
-        <v>1.422631745512952E-09</v>
+        <v>1.422631745512953E-09</v>
       </c>
       <c r="J23">
-        <v>8.611187143627965E-10</v>
+        <v>8.611187143627948E-10</v>
       </c>
       <c r="K23">
-        <v>0.0008260352273898321</v>
+        <v>0.0008260352273898352</v>
       </c>
       <c r="L23">
-        <v>0.09441671651689884</v>
+        <v>0.0944167165168988</v>
       </c>
       <c r="M23">
-        <v>785.8911168868035</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.0944167165168988</v>
+      </c>
+      <c r="N23">
+        <v>785.891116886804</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>101.7810736565574</v>
+        <v>101.7810736565573</v>
       </c>
       <c r="B24">
-        <v>18893.75034587921</v>
+        <v>18893.750345879</v>
       </c>
       <c r="C24">
-        <v>22.50562227356894</v>
+        <v>22.5056222735687</v>
       </c>
       <c r="D24">
-        <v>30233.18009666038</v>
+        <v>30233.1800966604</v>
       </c>
       <c r="E24">
-        <v>9762.797878630769</v>
+        <v>9762.797878630787</v>
       </c>
       <c r="F24">
-        <v>8923.910351693517</v>
+        <v>8923.910351693539</v>
       </c>
       <c r="G24">
-        <v>14.71763708635619</v>
+        <v>14.7176370863563</v>
       </c>
       <c r="H24">
-        <v>40.19601079989802</v>
+        <v>40.1960107998982</v>
       </c>
       <c r="I24">
-        <v>1.451068426066088E-09</v>
+        <v>1.451068426066084E-09</v>
       </c>
       <c r="J24">
-        <v>9.002000433885212E-10</v>
+        <v>9.002000433885175E-10</v>
       </c>
       <c r="K24">
-        <v>0.00077533316062789</v>
+        <v>0.0007753331606278941</v>
       </c>
       <c r="L24">
-        <v>0.09439025331536381</v>
+        <v>0.09439025331536384</v>
       </c>
       <c r="M24">
-        <v>781.0871232249051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.09439025331536384</v>
+      </c>
+      <c r="N24">
+        <v>781.0871232249056</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>103.2650284314136</v>
+        <v>103.2650284314135</v>
       </c>
       <c r="B25">
-        <v>22323.6784798344</v>
+        <v>22323.67847983424</v>
       </c>
       <c r="C25">
-        <v>26.23842900977519</v>
+        <v>26.23842900977503</v>
       </c>
       <c r="D25">
-        <v>30063.89130728152</v>
+        <v>30063.89130728153</v>
       </c>
       <c r="E25">
-        <v>9701.730422258956</v>
+        <v>9701.730422258963</v>
       </c>
       <c r="F25">
-        <v>8851.672083915093</v>
+        <v>8851.672083915095</v>
       </c>
       <c r="G25">
-        <v>13.83157514881841</v>
+        <v>13.83157514881839</v>
       </c>
       <c r="H25">
-        <v>38.30055821496406</v>
+        <v>38.30055821496412</v>
       </c>
       <c r="I25">
-        <v>1.480605018879642E-09</v>
+        <v>1.480605018879643E-09</v>
       </c>
       <c r="J25">
-        <v>9.415969011240818E-10</v>
+        <v>9.415969011240797E-10</v>
       </c>
       <c r="K25">
-        <v>0.0007289871021586344</v>
+        <v>0.000728987102158637</v>
       </c>
       <c r="L25">
-        <v>0.09434225138013241</v>
+        <v>0.09434225138013239</v>
       </c>
       <c r="M25">
-        <v>776.034495255326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.09434225138013239</v>
+      </c>
+      <c r="N25">
+        <v>776.0344952553262</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>104.7489832062699</v>
+        <v>104.7489832062698</v>
       </c>
       <c r="B26">
-        <v>26231.2492349938</v>
+        <v>26231.24923499347</v>
       </c>
       <c r="C26">
-        <v>30.43167245327182</v>
+        <v>30.43167245327147</v>
       </c>
       <c r="D26">
-        <v>29897.98089473149</v>
+        <v>29897.98089473151</v>
       </c>
       <c r="E26">
-        <v>9642.992997053272</v>
+        <v>9642.992997053279</v>
       </c>
       <c r="F26">
-        <v>8781.898366544377</v>
+        <v>8781.89836654439</v>
       </c>
       <c r="G26">
-        <v>13.0420978850952</v>
+        <v>13.04209788509523</v>
       </c>
       <c r="H26">
-        <v>36.60103707667029</v>
+        <v>36.60103707667037</v>
       </c>
       <c r="I26">
-        <v>1.511311462544851E-09</v>
+        <v>1.511311462544847E-09</v>
       </c>
       <c r="J26">
-        <v>9.854071125566448E-10</v>
+        <v>9.854071125566426E-10</v>
       </c>
       <c r="K26">
-        <v>0.0006867927778968459</v>
+        <v>0.0006867927778968491</v>
       </c>
       <c r="L26">
-        <v>0.09427213077181142</v>
+        <v>0.09427213077181146</v>
       </c>
       <c r="M26">
-        <v>770.7352905252368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.09427213077181146</v>
+      </c>
+      <c r="N26">
+        <v>770.7352905252377</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>106.2329379811261</v>
+        <v>106.232937981126</v>
       </c>
       <c r="B27">
-        <v>30662.37570957241</v>
+        <v>30662.37570957222</v>
       </c>
       <c r="C27">
-        <v>35.12226359512184</v>
+        <v>35.12226359512167</v>
       </c>
       <c r="D27">
-        <v>29735.14331722506</v>
+        <v>29735.14331722507</v>
       </c>
       <c r="E27">
-        <v>9586.283067799981</v>
+        <v>9586.283067799985</v>
       </c>
       <c r="F27">
-        <v>8714.296040431356</v>
+        <v>8714.296040431362</v>
       </c>
       <c r="G27">
-        <v>12.34021982489729</v>
+        <v>12.34021982489735</v>
       </c>
       <c r="H27">
-        <v>35.08041088625948</v>
+        <v>35.08041088625964</v>
       </c>
       <c r="I27">
-        <v>1.543260706087113E-09</v>
+        <v>1.54326070608711E-09</v>
       </c>
       <c r="J27">
-        <v>1.031724398491169E-09</v>
+        <v>1.031724398491166E-09</v>
       </c>
       <c r="K27">
-        <v>0.0006484656943873545</v>
+        <v>0.0006484656943873573</v>
       </c>
       <c r="L27">
         <v>0.094179183917531</v>
       </c>
       <c r="M27">
-        <v>765.1989556595013</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.094179183917531</v>
+      </c>
+      <c r="N27">
+        <v>765.198955659502</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>107.7168927559823</v>
+        <v>107.7168927559822</v>
       </c>
       <c r="B28">
-        <v>35665.20843683833</v>
+        <v>35665.20843683794</v>
       </c>
       <c r="C28">
-        <v>40.34836556669453</v>
+        <v>40.34836556669411</v>
       </c>
       <c r="D28">
         <v>29575.09282722398</v>
       </c>
       <c r="E28">
-        <v>9531.32210771115</v>
+        <v>9531.322107711156</v>
       </c>
       <c r="F28">
-        <v>8648.596103359741</v>
+        <v>8648.596103359738</v>
       </c>
       <c r="G28">
-        <v>11.71737079094831</v>
+        <v>11.71737079094836</v>
       </c>
       <c r="H28">
-        <v>33.72288343852044</v>
+        <v>33.72288343852053</v>
       </c>
       <c r="I28">
-        <v>1.576529145206274E-09</v>
+        <v>1.576529145206276E-09</v>
       </c>
       <c r="J28">
-        <v>1.080637404929704E-09</v>
+        <v>1.080637404929701E-09</v>
       </c>
       <c r="K28">
-        <v>0.0006136786236960613</v>
+        <v>0.0006136786236960624</v>
       </c>
       <c r="L28">
-        <v>0.09406240871323737</v>
+        <v>0.09406240871323733</v>
       </c>
       <c r="M28">
-        <v>759.4406533279513</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.09406240871323733</v>
+      </c>
+      <c r="N28">
+        <v>759.4406533279505</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>109.2008475308386</v>
+        <v>109.2008475308385</v>
       </c>
       <c r="B29">
-        <v>41290.08974229071</v>
+        <v>41290.08974229042</v>
       </c>
       <c r="C29">
-        <v>46.1493643096223</v>
+        <v>46.14936430962202</v>
       </c>
       <c r="D29">
         <v>29417.56175803754</v>
       </c>
       <c r="E29">
-        <v>9477.853848667532</v>
+        <v>9477.853848667537</v>
       </c>
       <c r="F29">
-        <v>8584.55194215839</v>
+        <v>8584.551942158396</v>
       </c>
       <c r="G29">
-        <v>11.16548165545568</v>
+        <v>11.16548165545569</v>
       </c>
       <c r="H29">
-        <v>32.51389638288956</v>
+        <v>32.51389638288965</v>
       </c>
       <c r="I29">
-        <v>1.611197082283577E-09</v>
+        <v>1.611197082283575E-09</v>
       </c>
       <c r="J29">
-        <v>1.132228768810237E-09</v>
+        <v>1.132228768810234E-09</v>
       </c>
       <c r="K29">
-        <v>0.0005820903090546116</v>
+        <v>0.0005820903090546133</v>
       </c>
       <c r="L29">
-        <v>0.09392038048811494</v>
+        <v>0.09392038048811492</v>
       </c>
       <c r="M29">
-        <v>753.4796588456803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.09392038048811492</v>
+      </c>
+      <c r="N29">
+        <v>753.4796588456811</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>110.6848023056948</v>
+        <v>110.6848023056947</v>
       </c>
       <c r="B30">
-        <v>47589.50156394686</v>
+        <v>47589.50156394627</v>
       </c>
       <c r="C30">
-        <v>52.56584303188065</v>
+        <v>52.56584303188004</v>
       </c>
       <c r="D30">
-        <v>29262.29896012801</v>
+        <v>29262.29896012803</v>
       </c>
       <c r="E30">
-        <v>9425.642550710789</v>
+        <v>9425.642550710791</v>
       </c>
       <c r="F30">
-        <v>8521.937585856305</v>
+        <v>8521.937585856303</v>
       </c>
       <c r="G30">
-        <v>10.67703475974715</v>
+        <v>10.67703475974717</v>
       </c>
       <c r="H30">
-        <v>31.44010179636504</v>
+        <v>31.44010179636508</v>
       </c>
       <c r="I30">
-        <v>1.647349213350915E-09</v>
+        <v>1.647349213350914E-09</v>
       </c>
       <c r="J30">
-        <v>1.186574249093379E-09</v>
+        <v>1.186574249093376E-09</v>
       </c>
       <c r="K30">
-        <v>0.0005533656428649664</v>
+        <v>0.0005533656428649682</v>
       </c>
       <c r="L30">
         <v>0.09375116760388864</v>
       </c>
       <c r="M30">
-        <v>747.3378860978788</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.09375116760388864</v>
+      </c>
+      <c r="N30">
+        <v>747.337886097879</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>112.1687570805511</v>
+        <v>112.168757080551</v>
       </c>
       <c r="B31">
-        <v>54618.00747818646</v>
+        <v>54618.00747818634</v>
       </c>
       <c r="C31">
-        <v>59.63956109835382</v>
+        <v>59.63956109835377</v>
       </c>
       <c r="D31">
-        <v>29109.06837154278</v>
+        <v>29109.06837154279</v>
       </c>
       <c r="E31">
-        <v>9374.471320984883</v>
+        <v>9374.471320984887</v>
       </c>
       <c r="F31">
-        <v>8460.546010191902</v>
+        <v>8460.546010191905</v>
       </c>
       <c r="G31">
-        <v>10.24508754626842</v>
+        <v>10.24508754626841</v>
       </c>
       <c r="H31">
-        <v>30.48931706577762</v>
+        <v>30.48931706577768</v>
       </c>
       <c r="I31">
-        <v>1.685075145782273E-09</v>
+        <v>1.685075145782269E-09</v>
       </c>
       <c r="J31">
-        <v>1.243741952363378E-09</v>
+        <v>1.243741952363372E-09</v>
       </c>
       <c r="K31">
-        <v>0.0005271885394478375</v>
+        <v>0.0005271885394478399</v>
       </c>
       <c r="L31">
-        <v>0.09355229263643712</v>
+        <v>0.09355229263643718</v>
       </c>
       <c r="M31">
-        <v>741.0385884127228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.09355229263643718</v>
+      </c>
+      <c r="N31">
+        <v>741.0385884127243</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>113.6527118554073</v>
+        <v>113.6527118554072</v>
       </c>
       <c r="B32">
-        <v>62432.18967357471</v>
+        <v>62432.18967357432</v>
       </c>
       <c r="C32">
-        <v>67.41343794859081</v>
+        <v>67.41343794859047</v>
       </c>
       <c r="D32">
-        <v>28957.64770857732</v>
+        <v>28957.64770857734</v>
       </c>
       <c r="E32">
-        <v>9324.140502918519</v>
+        <v>9324.140502918517</v>
       </c>
       <c r="F32">
-        <v>8400.187514346133</v>
+        <v>8400.187514346137</v>
       </c>
       <c r="G32">
-        <v>9.863276233226511</v>
+        <v>9.863276233226557</v>
       </c>
       <c r="H32">
-        <v>29.6504678185272</v>
+        <v>29.65046781852729</v>
       </c>
       <c r="I32">
-        <v>1.724469951047585E-09</v>
+        <v>1.724469951047581E-09</v>
       </c>
       <c r="J32">
-        <v>1.30379168095401E-09</v>
+        <v>1.303791680954003E-09</v>
       </c>
       <c r="K32">
-        <v>0.0005032690977567875</v>
+        <v>0.0005032690977567901</v>
       </c>
       <c r="L32">
-        <v>0.09332073861146646</v>
+        <v>0.09332073861146653</v>
       </c>
       <c r="M32">
-        <v>734.6052628348979</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.09332073861146653</v>
+      </c>
+      <c r="N32">
+        <v>734.6052628348987</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>115.1366666302636</v>
+        <v>115.1366666302635</v>
       </c>
       <c r="B33">
-        <v>71090.58160439691</v>
+        <v>71090.58160439579</v>
       </c>
       <c r="C33">
-        <v>75.93154258414629</v>
+        <v>75.93154258414513</v>
       </c>
       <c r="D33">
-        <v>28807.82726426161</v>
+        <v>28807.82726426162</v>
       </c>
       <c r="E33">
-        <v>9274.466149120193</v>
+        <v>9274.466149120191</v>
       </c>
       <c r="F33">
-        <v>8340.688183421813</v>
+        <v>8340.688183421815</v>
       </c>
       <c r="G33">
-        <v>9.525804951068046</v>
+        <v>9.525804951068038</v>
       </c>
       <c r="H33">
-        <v>28.91352336911737</v>
+        <v>28.9135233691174</v>
       </c>
       <c r="I33">
-        <v>1.765634757479626E-09</v>
+        <v>1.765634757479622E-09</v>
       </c>
       <c r="J33">
-        <v>1.36677442908968E-09</v>
+        <v>1.366774429089674E-09</v>
       </c>
       <c r="K33">
-        <v>0.0004813466331014842</v>
+        <v>0.0004813466331014856</v>
       </c>
       <c r="L33">
-        <v>0.0930529976189869</v>
+        <v>0.09305299761898696</v>
       </c>
       <c r="M33">
-        <v>728.0607690454862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.09305299761898696</v>
+      </c>
+      <c r="N33">
+        <v>728.0607690454872</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>116.6206214051198</v>
+        <v>116.6206214051197</v>
       </c>
       <c r="B34">
-        <v>80653.59703645422</v>
+        <v>80653.59703645282</v>
       </c>
       <c r="C34">
-        <v>85.23908912521328</v>
+        <v>85.23908912521189</v>
       </c>
       <c r="D34">
-        <v>28659.40880357888</v>
+        <v>28659.4088035789</v>
       </c>
       <c r="E34">
-        <v>9225.278585829481</v>
+        <v>9225.278585829486</v>
       </c>
       <c r="F34">
-        <v>8281.88844454321</v>
+        <v>8281.88844454322</v>
       </c>
       <c r="G34">
-        <v>9.227424607777076</v>
+        <v>9.227424607777067</v>
       </c>
       <c r="H34">
-        <v>28.26942811763692</v>
+        <v>28.26942811763687</v>
       </c>
       <c r="I34">
-        <v>1.808677388660162E-09</v>
+        <v>1.808677388660154E-09</v>
       </c>
       <c r="J34">
-        <v>1.432732048715625E-09</v>
+        <v>1.432732048715619E-09</v>
       </c>
       <c r="K34">
-        <v>0.0004611899368057717</v>
+        <v>0.000461189936805774</v>
       </c>
       <c r="L34">
-        <v>0.09274515733015089</v>
+        <v>0.09274515733015097</v>
       </c>
       <c r="M34">
-        <v>721.4266591342623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.09274515733015097</v>
+      </c>
+      <c r="N34">
+        <v>721.4266591342636</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>118.1045761799761</v>
+        <v>118.1045761799759</v>
       </c>
       <c r="B35">
-        <v>91183.4561712897</v>
+        <v>91183.4561712881</v>
       </c>
       <c r="C35">
-        <v>95.38243890227102</v>
+        <v>95.38243890226943</v>
       </c>
       <c r="D35">
-        <v>28512.20454549189</v>
+        <v>28512.20454549191</v>
       </c>
       <c r="E35">
-        <v>9176.42107249439</v>
+        <v>9176.421072494375</v>
       </c>
       <c r="F35">
-        <v>8223.641720162479</v>
+        <v>8223.641720162463</v>
       </c>
       <c r="G35">
-        <v>8.963404813980006</v>
+        <v>8.963404813979974</v>
       </c>
       <c r="H35">
-        <v>27.7100315055668</v>
+        <v>27.71003150556679</v>
       </c>
       <c r="I35">
-        <v>1.853713053747676E-09</v>
+        <v>1.853713053747672E-09</v>
       </c>
       <c r="J35">
-        <v>1.501697101747702E-09</v>
+        <v>1.501697101747693E-09</v>
       </c>
       <c r="K35">
-        <v>0.0004425958298520521</v>
+        <v>0.0004425958298520539</v>
       </c>
       <c r="L35">
-        <v>0.09239301958866866</v>
+        <v>0.09239301958866869</v>
       </c>
       <c r="M35">
-        <v>714.7227028151524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.09239301958866869</v>
+      </c>
+      <c r="N35">
+        <v>714.7227028151534</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>119.5885309548323</v>
+        <v>119.5885309548322</v>
       </c>
       <c r="B36">
-        <v>102744.1095035392</v>
+        <v>102744.109503538</v>
       </c>
       <c r="C36">
-        <v>106.4091095250819</v>
+        <v>106.4091095250807</v>
       </c>
       <c r="D36">
-        <v>28366.03622288341</v>
+        <v>28366.03622288342</v>
       </c>
       <c r="E36">
-        <v>9127.748556854953</v>
+        <v>9127.748556854958</v>
       </c>
       <c r="F36">
-        <v>8165.813178962467</v>
+        <v>8165.813178962469</v>
       </c>
       <c r="G36">
-        <v>8.729501442294541</v>
+        <v>8.729501442294584</v>
       </c>
       <c r="H36">
-        <v>27.2280184693221</v>
+        <v>27.22801846932221</v>
       </c>
       <c r="I36">
         <v>1.900865096862666E-09</v>
       </c>
       <c r="J36">
-        <v>1.573692909659807E-09</v>
+        <v>1.573692909659799E-09</v>
       </c>
       <c r="K36">
-        <v>0.0004253867886812536</v>
+        <v>0.0004253867886812547</v>
       </c>
       <c r="L36">
         <v>0.09199224453308803</v>
       </c>
       <c r="M36">
+        <v>0.09199224453308803</v>
+      </c>
+      <c r="N36">
         <v>707.9665849013072</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>121.0724857296886</v>
+        <v>121.0724857296884</v>
       </c>
       <c r="B37">
-        <v>115401.160030887</v>
+        <v>115401.1600308845</v>
       </c>
       <c r="C37">
-        <v>118.3677913596209</v>
+        <v>118.3677913596184</v>
       </c>
       <c r="D37">
-        <v>28220.73421243121</v>
+        <v>28220.73421243122</v>
       </c>
       <c r="E37">
-        <v>9079.126523575776</v>
+        <v>9079.126523575782</v>
       </c>
       <c r="F37">
-        <v>8108.278582406523</v>
+        <v>8108.278582406526</v>
       </c>
       <c r="G37">
-        <v>8.521921786995259</v>
+        <v>8.52192178699528</v>
       </c>
       <c r="H37">
-        <v>26.81684180338303</v>
+        <v>26.81684180338307</v>
       </c>
       <c r="I37">
-        <v>1.950265813536115E-09</v>
+        <v>1.950265813536113E-09</v>
       </c>
       <c r="J37">
-        <v>1.648733804975628E-09</v>
+        <v>1.64873380497562E-09</v>
       </c>
       <c r="K37">
-        <v>0.0004094081757538551</v>
+        <v>0.0004094081757538562</v>
       </c>
       <c r="L37">
         <v>0.0915385138251478</v>
       </c>
       <c r="M37">
+        <v>0.0915385138251478</v>
+      </c>
+      <c r="N37">
         <v>701.1737477114742</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>122.5564405045448</v>
+        <v>122.5564405045447</v>
       </c>
       <c r="B38">
-        <v>129221.7843986587</v>
+        <v>129221.784398658</v>
       </c>
       <c r="C38">
-        <v>131.3083718447062</v>
+        <v>131.3083718447056</v>
       </c>
       <c r="D38">
-        <v>28076.13672724651</v>
+        <v>28076.13672724652</v>
       </c>
       <c r="E38">
-        <v>9030.429932803563</v>
+        <v>9030.429932803565</v>
       </c>
       <c r="F38">
         <v>8050.923223323425</v>
       </c>
       <c r="G38">
-        <v>8.337288803537556</v>
+        <v>8.337288803537639</v>
       </c>
       <c r="H38">
-        <v>26.47065742799278</v>
+        <v>26.47065742799289</v>
       </c>
       <c r="I38">
-        <v>2.002057343232901E-09</v>
+        <v>2.002057343232897E-09</v>
       </c>
       <c r="J38">
-        <v>1.72682558271223E-09</v>
+        <v>1.726825582712221E-09</v>
       </c>
       <c r="K38">
-        <v>0.0003945254158650005</v>
+        <v>0.0003945254158650021</v>
       </c>
       <c r="L38">
-        <v>0.09102770760328252</v>
+        <v>0.09102770760328255</v>
       </c>
       <c r="M38">
-        <v>694.357349966893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.09102770760328255</v>
+      </c>
+      <c r="N38">
+        <v>694.3573499668929</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>124.0403952794011</v>
+        <v>124.0403952794009</v>
       </c>
       <c r="B39">
-        <v>144274.6535230395</v>
+        <v>144274.6535230377</v>
       </c>
       <c r="C39">
-        <v>145.281968095803</v>
+        <v>145.2819680958013</v>
       </c>
       <c r="D39">
-        <v>27932.08906582008</v>
+        <v>27932.08906582011</v>
       </c>
       <c r="E39">
-        <v>8981.542243877653</v>
+        <v>8981.542243877655</v>
       </c>
       <c r="F39">
-        <v>7993.64095177654</v>
+        <v>7993.640951776545</v>
       </c>
       <c r="G39">
-        <v>8.172605520667018</v>
+        <v>8.172605520667029</v>
       </c>
       <c r="H39">
         <v>26.18426323048099</v>
       </c>
       <c r="I39">
-        <v>2.056392648107546E-09</v>
+        <v>2.056392648107534E-09</v>
       </c>
       <c r="J39">
-        <v>1.807966143518978E-09</v>
+        <v>1.807966143518966E-09</v>
       </c>
       <c r="K39">
-        <v>0.0003806213192680874</v>
+        <v>0.0003806213192680896</v>
       </c>
       <c r="L39">
-        <v>0.09045609157711629</v>
+        <v>0.09045609157711644</v>
       </c>
       <c r="M39">
-        <v>687.5283148925703</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.09045609157711644</v>
+      </c>
+      <c r="N39">
+        <v>687.5283148925719</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>125.5243500542573</v>
+        <v>125.5243500542572</v>
       </c>
       <c r="B40">
-        <v>160629.8531990276</v>
+        <v>160629.8531990257</v>
       </c>
       <c r="C40">
-        <v>160.3409682745613</v>
+        <v>160.3409682745597</v>
       </c>
       <c r="D40">
-        <v>27788.44291145391</v>
+        <v>27788.44291145393</v>
       </c>
       <c r="E40">
-        <v>8932.354518670532</v>
+        <v>8932.354518670554</v>
       </c>
       <c r="F40">
-        <v>7936.333282729212</v>
+        <v>7936.333282729228</v>
       </c>
       <c r="G40">
-        <v>8.025220412317903</v>
+        <v>8.025220412317944</v>
       </c>
       <c r="H40">
-        <v>25.95304189710265</v>
+        <v>25.95304189710274</v>
       </c>
       <c r="I40">
-        <v>2.113436589461083E-09</v>
+        <v>2.113436589461079E-09</v>
       </c>
       <c r="J40">
-        <v>1.892146314525335E-09</v>
+        <v>1.892146314525325E-09</v>
       </c>
       <c r="K40">
-        <v>0.0003675936560598612</v>
+        <v>0.0003675936560598628</v>
       </c>
       <c r="L40">
-        <v>0.08982051266154466</v>
+        <v>0.08982051266154474</v>
       </c>
       <c r="M40">
-        <v>680.6954428875516</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.08982051266154474</v>
+      </c>
+      <c r="N40">
+        <v>680.695442887552</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>127.0083048291136</v>
+        <v>127.0083048291134</v>
       </c>
       <c r="B41">
-        <v>178358.8051632335</v>
+        <v>178358.8051632294</v>
       </c>
       <c r="C41">
-        <v>176.5390822512843</v>
+        <v>176.5390822512803</v>
       </c>
       <c r="D41">
-        <v>27645.05567691529</v>
+        <v>27645.05567691531</v>
       </c>
       <c r="E41">
-        <v>8882.764598586147</v>
+        <v>8882.764598586153</v>
       </c>
       <c r="F41">
-        <v>7878.90857958624</v>
+        <v>7878.908579586247</v>
       </c>
       <c r="G41">
-        <v>7.892794277032062</v>
+        <v>7.892794277032043</v>
       </c>
       <c r="H41">
-        <v>25.77290795967212</v>
+        <v>25.7729079596721</v>
       </c>
       <c r="I41">
-        <v>2.173367114875989E-09</v>
+        <v>2.17336711487598E-09</v>
       </c>
       <c r="J41">
-        <v>1.979350829062414E-09</v>
+        <v>1.979350829062406E-09</v>
       </c>
       <c r="K41">
-        <v>0.0003553530231635409</v>
+        <v>0.0003553530231635424</v>
       </c>
       <c r="L41">
-        <v>0.08911860271793358</v>
+        <v>0.08911860271793372</v>
       </c>
       <c r="M41">
-        <v>673.8655676000651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.08911860271793372</v>
+      </c>
+      <c r="N41">
+        <v>673.8655676000666</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>128.4922596039698</v>
+        <v>128.4922596039696</v>
       </c>
       <c r="B42">
-        <v>197534.1890480392</v>
+        <v>197534.189048036</v>
       </c>
       <c r="C42">
-        <v>193.9314021549193</v>
+        <v>193.9314021549162</v>
       </c>
       <c r="D42">
-        <v>27501.78988954658</v>
+        <v>27501.78988954659</v>
       </c>
       <c r="E42">
-        <v>8832.676349015286</v>
+        <v>8832.67634901529</v>
       </c>
       <c r="F42">
-        <v>7821.281307484333</v>
+        <v>7821.281307484342</v>
       </c>
       <c r="G42">
-        <v>7.773268986510138</v>
+        <v>7.77326898651021</v>
       </c>
       <c r="H42">
-        <v>25.64025913643361</v>
+        <v>25.64025913643369</v>
       </c>
       <c r="I42">
-        <v>2.236376570745307E-09</v>
+        <v>2.236376570745299E-09</v>
       </c>
       <c r="J42">
-        <v>2.06955944268584E-09</v>
+        <v>2.06955944268583E-09</v>
       </c>
       <c r="K42">
-        <v>0.0003438210065052369</v>
+        <v>0.0003438210065052381</v>
       </c>
       <c r="L42">
-        <v>0.08834898903846351</v>
+        <v>0.08834898903846364</v>
       </c>
       <c r="M42">
-        <v>667.0437380051676</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.08834898903846364</v>
+      </c>
+      <c r="N42">
+        <v>667.0437380051682</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>129.9762143788261</v>
+        <v>129.9762143788259</v>
       </c>
       <c r="B43">
-        <v>218229.8656335784</v>
+        <v>218229.8656335762</v>
       </c>
       <c r="C43">
-        <v>212.5744734936046</v>
+        <v>212.5744734936026</v>
       </c>
       <c r="D43">
-        <v>27358.5126125001</v>
+        <v>27358.51261250013</v>
       </c>
       <c r="E43">
-        <v>8781.998964982697</v>
+        <v>8781.9989649827</v>
       </c>
       <c r="F43">
-        <v>7763.371350162865</v>
+        <v>7763.371350162884</v>
       </c>
       <c r="G43">
-        <v>7.664838321815519</v>
+        <v>7.664838321815536</v>
       </c>
       <c r="H43">
         <v>25.55193194001708</v>
       </c>
       <c r="I43">
-        <v>2.302673156925555E-09</v>
+        <v>2.302673156925536E-09</v>
       </c>
       <c r="J43">
-        <v>2.162748160441926E-09</v>
+        <v>2.162748160441911E-09</v>
       </c>
       <c r="K43">
-        <v>0.0003329286191259624</v>
+        <v>0.0003329286191259642</v>
       </c>
       <c r="L43">
-        <v>0.08751150600885314</v>
+        <v>0.08751150600885331</v>
       </c>
       <c r="M43">
-        <v>660.2334127565219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.08751150600885331</v>
+      </c>
+      <c r="N43">
+        <v>660.2334127565242</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>131.4601691536823</v>
+        <v>131.4601691536822</v>
       </c>
       <c r="B44">
-        <v>240520.801778338</v>
+        <v>240520.8017783369</v>
       </c>
       <c r="C44">
-        <v>232.5263776406417</v>
+        <v>232.5263776406408</v>
       </c>
       <c r="D44">
-        <v>27215.09489815553</v>
+        <v>27215.09489815554</v>
       </c>
       <c r="E44">
-        <v>8730.64633176632</v>
+        <v>8730.646331766335</v>
       </c>
       <c r="F44">
-        <v>7705.103384318649</v>
+        <v>7705.103384318658</v>
       </c>
       <c r="G44">
-        <v>7.565921007093189</v>
+        <v>7.56592100709323</v>
       </c>
       <c r="H44">
-        <v>25.50516144907916</v>
+        <v>25.50516144907922</v>
       </c>
       <c r="I44">
-        <v>2.372482542578065E-09</v>
+        <v>2.372482542578066E-09</v>
       </c>
       <c r="J44">
-        <v>2.258890549129603E-09</v>
+        <v>2.258890549129596E-09</v>
       </c>
       <c r="K44">
-        <v>0.0003226149852880904</v>
+        <v>0.000322614985288091</v>
       </c>
       <c r="L44">
-        <v>0.08660739452357549</v>
+        <v>0.08660739452357553</v>
       </c>
       <c r="M44">
-        <v>653.436656432324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.08660739452357553</v>
+      </c>
+      <c r="N44">
+        <v>653.4366564323235</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>132.9441239285385</v>
+        <v>132.9441239285384</v>
       </c>
       <c r="B45">
-        <v>264482.9973885115</v>
+        <v>264482.9973885061</v>
       </c>
       <c r="C45">
-        <v>253.8468266186033</v>
+        <v>253.8468266185981</v>
       </c>
       <c r="D45">
-        <v>27071.41127011725</v>
+        <v>27071.41127011726</v>
       </c>
       <c r="E45">
-        <v>8678.536434392125</v>
+        <v>8678.536434392117</v>
       </c>
       <c r="F45">
-        <v>7646.406305498777</v>
+        <v>7646.406305498766</v>
       </c>
       <c r="G45">
-        <v>7.475135969485937</v>
+        <v>7.475135969485955</v>
       </c>
       <c r="H45">
         <v>25.4975450879852</v>
       </c>
       <c r="I45">
-        <v>2.446049664980725E-09</v>
+        <v>2.44604966498072E-09</v>
       </c>
       <c r="J45">
-        <v>2.357959108372789E-09</v>
+        <v>2.357959108372781E-09</v>
       </c>
       <c r="K45">
-        <v>0.0003128262369770942</v>
+        <v>0.0003128262369770952</v>
       </c>
       <c r="L45">
-        <v>0.08563946534392523</v>
+        <v>0.08563946534392533</v>
       </c>
       <c r="M45">
-        <v>646.6543301909485</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.08563946534392533</v>
+      </c>
+      <c r="N45">
+        <v>646.6543301909487</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>134.4280787033948</v>
+        <v>134.4280787033946</v>
       </c>
       <c r="B46">
-        <v>290193.4147713057</v>
+        <v>290193.4147713005</v>
       </c>
       <c r="C46">
-        <v>276.5972712813942</v>
+        <v>276.5972712813893</v>
       </c>
       <c r="D46">
-        <v>26927.3392304916</v>
+        <v>26927.33923049162</v>
       </c>
       <c r="E46">
-        <v>8625.590810076454</v>
+        <v>8625.590810076472</v>
       </c>
       <c r="F46">
-        <v>7587.212699783704</v>
+        <v>7587.21269978372</v>
       </c>
       <c r="G46">
-        <v>7.391279794517831</v>
+        <v>7.39127979451782</v>
       </c>
       <c r="H46">
-        <v>25.52701022547876</v>
+        <v>25.52701022547874</v>
       </c>
       <c r="I46">
-        <v>2.523640736258941E-09</v>
+        <v>2.523640736258934E-09</v>
       </c>
       <c r="J46">
-        <v>2.459926675508729E-09</v>
+        <v>2.459926675508718E-09</v>
       </c>
       <c r="K46">
-        <v>0.0003035145896920124</v>
+        <v>0.0003035145896920134</v>
       </c>
       <c r="L46">
-        <v>0.08461219280858269</v>
+        <v>0.08461219280858279</v>
       </c>
       <c r="M46">
-        <v>639.886271750896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.08461219280858279</v>
+      </c>
+      <c r="N46">
+        <v>639.8862717508968</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>135.9120334782511</v>
+        <v>135.9120334782509</v>
       </c>
       <c r="B47">
-        <v>317729.9107089317</v>
+        <v>317729.9107089277</v>
       </c>
       <c r="C47">
-        <v>300.8410241942477</v>
+        <v>300.8410241942442</v>
       </c>
       <c r="D47">
-        <v>26782.75878940871</v>
+        <v>26782.75878940873</v>
       </c>
       <c r="E47">
-        <v>8571.73403788044</v>
+        <v>8571.734037880442</v>
       </c>
       <c r="F47">
         <v>7527.458355734429</v>
       </c>
       <c r="G47">
-        <v>7.313306303958079</v>
+        <v>7.313306303958057</v>
       </c>
       <c r="H47">
-        <v>25.59178538459836</v>
+        <v>25.59178538459834</v>
       </c>
       <c r="I47">
-        <v>2.605545486688554E-09</v>
+        <v>2.605545486688545E-09</v>
       </c>
       <c r="J47">
-        <v>2.564767841438707E-09</v>
+        <v>2.564767841438696E-09</v>
       </c>
       <c r="K47">
-        <v>0.0002946375671442858</v>
+        <v>0.0002946375671442871</v>
       </c>
       <c r="L47">
-        <v>0.08353170088122927</v>
+        <v>0.08353170088122942</v>
       </c>
       <c r="M47">
-        <v>633.1314615227229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.08353170088122942</v>
+      </c>
+      <c r="N47">
+        <v>633.1314615227242</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>137.3959882531073</v>
+        <v>137.3959882531071</v>
       </c>
       <c r="B48">
-        <v>347171.171588275</v>
+        <v>347171.1715882698</v>
       </c>
       <c r="C48">
-        <v>326.6433987488398</v>
+        <v>326.6433987488351</v>
       </c>
       <c r="D48">
-        <v>26637.55201398827</v>
+        <v>26637.55201398829</v>
       </c>
       <c r="E48">
-        <v>8516.893260041174</v>
+        <v>8516.893260041186</v>
       </c>
       <c r="F48">
-        <v>7467.081811308316</v>
+        <v>7467.081811308328</v>
       </c>
       <c r="G48">
-        <v>7.240308154300962</v>
+        <v>7.24030815430094</v>
       </c>
       <c r="H48">
         <v>25.6903748487976</v>
       </c>
       <c r="I48">
-        <v>2.692079677561775E-09</v>
+        <v>2.692079677561764E-09</v>
       </c>
       <c r="J48">
-        <v>2.672460357460685E-09</v>
+        <v>2.67246035746067E-09</v>
       </c>
       <c r="K48">
-        <v>0.0002861573482191603</v>
+        <v>0.0002861573482191615</v>
       </c>
       <c r="L48">
-        <v>0.08240560927429877</v>
+        <v>0.08240560927429888</v>
       </c>
       <c r="M48">
-        <v>626.3881731927579</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.08240560927429888</v>
+      </c>
+      <c r="N48">
+        <v>626.3881731927593</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>138.8799430279635</v>
+        <v>138.8799430279633</v>
       </c>
       <c r="B49">
-        <v>378596.6519271742</v>
+        <v>378596.6519271708</v>
       </c>
       <c r="C49">
-        <v>354.0718663302762</v>
+        <v>354.0718663302733</v>
       </c>
       <c r="D49">
-        <v>26491.60259415451</v>
+        <v>26491.60259415453</v>
       </c>
       <c r="E49">
-        <v>8460.997729639339</v>
+        <v>8460.997729639324</v>
       </c>
       <c r="F49">
-        <v>7406.023930672412</v>
+        <v>7406.023930672399</v>
       </c>
       <c r="G49">
-        <v>7.171500335507629</v>
+        <v>7.171500335507601</v>
       </c>
       <c r="H49">
-        <v>25.82153645074943</v>
+        <v>25.82153645074937</v>
       </c>
       <c r="I49">
-        <v>2.783587921706624E-09</v>
+        <v>2.78358792170661E-09</v>
       </c>
       <c r="J49">
-        <v>2.782986516478767E-09</v>
+        <v>2.782986516478752E-09</v>
       </c>
       <c r="K49">
-        <v>0.0002780402135507725</v>
+        <v>0.0002780402135507733</v>
       </c>
       <c r="L49">
-        <v>0.08124272571060705</v>
+        <v>0.08124272571060726</v>
       </c>
       <c r="M49">
-        <v>619.6541081495658</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.08124272571060726</v>
+      </c>
+      <c r="N49">
+        <v>619.654108149567</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>140.3638978028198</v>
+        <v>140.3638978028196</v>
       </c>
       <c r="B50">
-        <v>412086.5166519053</v>
+        <v>412086.5166518888</v>
       </c>
       <c r="C50">
-        <v>383.1962336798501</v>
+        <v>383.1962336798342</v>
       </c>
       <c r="D50">
-        <v>26344.79542288613</v>
+        <v>26344.79542288616</v>
       </c>
       <c r="E50">
-        <v>8403.978379444716</v>
+        <v>8403.978379444738</v>
       </c>
       <c r="F50">
-        <v>7344.227506053134</v>
+        <v>7344.227506053154</v>
       </c>
       <c r="G50">
-        <v>7.106205439081955</v>
+        <v>7.106205439081939</v>
       </c>
       <c r="H50">
-        <v>25.98426233859286</v>
+        <v>25.98426233859279</v>
       </c>
       <c r="I50">
-        <v>2.88044685575839E-09</v>
+        <v>2.880446855758376E-09</v>
       </c>
       <c r="J50">
-        <v>2.89633449563578E-09</v>
+        <v>2.896334495635761E-09</v>
       </c>
       <c r="K50">
-        <v>0.000270256072897507</v>
+        <v>0.0002702560728975084</v>
       </c>
       <c r="L50">
-        <v>0.08005259891527475</v>
+        <v>0.08005259891527493</v>
       </c>
       <c r="M50">
-        <v>612.9265139205079</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.08005259891527493</v>
+      </c>
+      <c r="N50">
+        <v>612.926513920509</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>141.8478525776761</v>
+        <v>141.8478525776758</v>
       </c>
       <c r="B51">
-        <v>447721.5875026646</v>
+        <v>447721.5875026584</v>
       </c>
       <c r="C51">
-        <v>414.0888429790114</v>
+        <v>414.0888429790058</v>
       </c>
       <c r="D51">
-        <v>26197.01618864597</v>
+        <v>26197.016188646</v>
       </c>
       <c r="E51">
-        <v>8345.767406942263</v>
+        <v>8345.767406942276</v>
       </c>
       <c r="F51">
-        <v>7281.636879949802</v>
+        <v>7281.636879949814</v>
       </c>
       <c r="G51">
-        <v>7.043840560002226</v>
+        <v>7.043840560002192</v>
       </c>
       <c r="H51">
-        <v>26.17776252792157</v>
+        <v>26.17776252792151</v>
       </c>
       <c r="I51">
-        <v>2.983068715381242E-09</v>
+        <v>2.98306871538123E-09</v>
       </c>
       <c r="J51">
-        <v>3.012499651137439E-09</v>
+        <v>3.01249965113742E-09</v>
       </c>
       <c r="K51">
-        <v>0.0002627780579623602</v>
+        <v>0.0002627780579623612</v>
       </c>
       <c r="L51">
-        <v>0.07884497810097027</v>
+        <v>0.07884497810097046</v>
       </c>
       <c r="M51">
-        <v>606.2022873100867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.07884497810097046</v>
+      </c>
+      <c r="N51">
+        <v>606.2022873100877</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>143.3318073525323</v>
+        <v>143.3318073525321</v>
       </c>
       <c r="B52">
-        <v>485583.2939748284</v>
+        <v>485583.2939748267</v>
       </c>
       <c r="C52">
-        <v>446.8247976231544</v>
+        <v>446.8247976231533</v>
       </c>
       <c r="D52">
-        <v>26048.1509778717</v>
+        <v>26048.15097787172</v>
       </c>
       <c r="E52">
-        <v>8286.297870677996</v>
+        <v>8286.297870678009</v>
       </c>
       <c r="F52">
-        <v>7218.197583200116</v>
+        <v>7218.197583200125</v>
       </c>
       <c r="G52">
-        <v>6.983905696914074</v>
+        <v>6.983905696914077</v>
       </c>
       <c r="H52">
-        <v>26.40145106545496</v>
+        <v>26.40145106545492</v>
       </c>
       <c r="I52">
-        <v>3.091905373056588E-09</v>
+        <v>3.091905373056574E-09</v>
       </c>
       <c r="J52">
-        <v>3.131485759658681E-09</v>
+        <v>3.131485759658664E-09</v>
       </c>
       <c r="K52">
-        <v>0.0002555821682972758</v>
+        <v>0.0002555821682972766</v>
       </c>
       <c r="L52">
-        <v>0.07762924816563874</v>
+        <v>0.07762924816563886</v>
       </c>
       <c r="M52">
-        <v>599.4780632610476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.07762924816563886</v>
+      </c>
+      <c r="N52">
+        <v>599.4780632610485</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>144.8157621273886</v>
+        <v>144.8157621273883</v>
       </c>
       <c r="B53">
-        <v>525753.6292435935</v>
+        <v>525753.6292435912</v>
       </c>
       <c r="C53">
-        <v>481.4822171667947</v>
+        <v>481.4822171667933</v>
       </c>
       <c r="D53">
-        <v>25898.08588552852</v>
+        <v>25898.08588552854</v>
       </c>
       <c r="E53">
-        <v>8225.503293175494</v>
+        <v>8225.503293175498</v>
       </c>
       <c r="F53">
-        <v>7153.855984519028</v>
+        <v>7153.855984519036</v>
       </c>
       <c r="G53">
-        <v>6.92597351810898</v>
+        <v>6.925973518109038</v>
       </c>
       <c r="H53">
-        <v>26.65493465130449</v>
+        <v>26.6549346513045</v>
       </c>
       <c r="I53">
-        <v>3.207452908065942E-09</v>
+        <v>3.207452908065923E-09</v>
       </c>
       <c r="J53">
-        <v>3.253306204109585E-09</v>
+        <v>3.253306204109568E-09</v>
       </c>
       <c r="K53">
-        <v>0.0002486469604504807</v>
+        <v>0.0002486469604504818</v>
       </c>
       <c r="L53">
-        <v>0.07641391696588379</v>
+        <v>0.07641391696588395</v>
       </c>
       <c r="M53">
-        <v>592.7502906420222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.07641391696588395</v>
+      </c>
+      <c r="N53">
+        <v>592.7502906420227</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>146.2997169022448</v>
+        <v>146.2997169022446</v>
       </c>
       <c r="B54">
-        <v>568315.1115694607</v>
+        <v>568315.1115694422</v>
       </c>
       <c r="C54">
-        <v>518.1425255150255</v>
+        <v>518.1425255150077</v>
       </c>
       <c r="D54">
-        <v>25746.7066318244</v>
+        <v>25746.70663182442</v>
       </c>
       <c r="E54">
-        <v>8163.317265754671</v>
+        <v>8163.31726575469</v>
       </c>
       <c r="F54">
-        <v>7088.55894723094</v>
+        <v>7088.558947230956</v>
       </c>
       <c r="G54">
-        <v>6.869680366215563</v>
+        <v>6.869680366215558</v>
       </c>
       <c r="H54">
-        <v>26.93800359060648</v>
+        <v>26.93800359060641</v>
       </c>
       <c r="I54">
-        <v>3.330256790248311E-09</v>
+        <v>3.330256790248294E-09</v>
       </c>
       <c r="J54">
-        <v>3.377985104599887E-09</v>
+        <v>3.37798510459987E-09</v>
       </c>
       <c r="K54">
-        <v>0.0002419532725925843</v>
+        <v>0.0002419532725925852</v>
       </c>
       <c r="L54">
-        <v>0.07520621919621141</v>
+        <v>0.07520621919621161</v>
       </c>
       <c r="M54">
-        <v>586.0152962412384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.07520621919621161</v>
+      </c>
+      <c r="N54">
+        <v>586.0152962412393</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>147.783671677101</v>
+        <v>147.7836716771008</v>
       </c>
       <c r="B55">
-        <v>613350.7517408279</v>
+        <v>613350.7517408179</v>
       </c>
       <c r="C55">
-        <v>556.890777119643</v>
+        <v>556.890777119634</v>
       </c>
       <c r="D55">
-        <v>25593.89818327122</v>
+        <v>25593.89818327125</v>
       </c>
       <c r="E55">
-        <v>8099.673050637867</v>
+        <v>8099.673050637883</v>
       </c>
       <c r="F55">
-        <v>7022.253488981429</v>
+        <v>7022.253488981443</v>
       </c>
       <c r="G55">
-        <v>6.814718381441747</v>
+        <v>6.814718381441748</v>
       </c>
       <c r="H55">
-        <v>27.25062497181607</v>
+        <v>27.25062497181605</v>
       </c>
       <c r="I55">
-        <v>3.460917773431246E-09</v>
+        <v>3.460917773431229E-09</v>
       </c>
       <c r="J55">
-        <v>3.505558398123509E-09</v>
+        <v>3.505558398123492E-09</v>
       </c>
       <c r="K55">
-        <v>0.0002354839785412808</v>
+        <v>0.0002354839785412818</v>
       </c>
       <c r="L55">
-        <v>0.07401187508772365</v>
+        <v>0.07401187508772383</v>
       </c>
       <c r="M55">
-        <v>579.2693382467938</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.07401187508772383</v>
+      </c>
+      <c r="N55">
+        <v>579.2693382467947</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>149.2676264519573</v>
+        <v>149.2676264519571</v>
       </c>
       <c r="B56">
-        <v>660944.0271792712</v>
+        <v>660944.0271792694</v>
       </c>
       <c r="C56">
-        <v>597.816026726254</v>
+        <v>597.8160267262533</v>
       </c>
       <c r="D56">
-        <v>25439.54437633912</v>
+        <v>25439.54437633915</v>
       </c>
       <c r="E56">
-        <v>8034.503175750637</v>
+        <v>8034.503175750625</v>
       </c>
       <c r="F56">
-        <v>6954.886440244979</v>
+        <v>6954.886440244971</v>
       </c>
       <c r="G56">
-        <v>6.760828631093553</v>
+        <v>6.760828631093569</v>
       </c>
       <c r="H56">
         <v>27.59293799827826</v>
       </c>
       <c r="I56">
-        <v>3.600098611659931E-09</v>
+        <v>3.600098611659904E-09</v>
       </c>
       <c r="J56">
-        <v>3.636074872771577E-09</v>
+        <v>3.636074872771556E-09</v>
       </c>
       <c r="K56">
-        <v>0.0002292237664526816</v>
+        <v>0.0002292237664526828</v>
       </c>
       <c r="L56">
-        <v>0.072835010558091</v>
+        <v>0.07283501055809122</v>
       </c>
       <c r="M56">
-        <v>572.5086504440824</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.07283501055809122</v>
+      </c>
+      <c r="N56">
+        <v>572.5086504440839</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>150.7515812268135</v>
+        <v>150.7515812268133</v>
       </c>
       <c r="B57">
-        <v>711178.8634114339</v>
+        <v>711178.8634114297</v>
       </c>
       <c r="C57">
-        <v>641.0117491242879</v>
+        <v>641.0117491242851</v>
       </c>
       <c r="D57">
-        <v>25283.52754199543</v>
+        <v>25283.52754199546</v>
       </c>
       <c r="E57">
-        <v>7967.739017617717</v>
+        <v>7967.739017617716</v>
       </c>
       <c r="F57">
         <v>6886.404097439062</v>
       </c>
       <c r="G57">
-        <v>6.70779514147824</v>
+        <v>6.707795141478268</v>
       </c>
       <c r="H57">
-        <v>27.96525143213152</v>
+        <v>27.96525143213149</v>
       </c>
       <c r="I57">
-        <v>3.748531732156429E-09</v>
+        <v>3.74853173215641E-09</v>
       </c>
       <c r="J57">
-        <v>3.7695971641864E-09</v>
+        <v>3.769597164186381E-09</v>
       </c>
       <c r="K57">
-        <v>0.0002231589385152234</v>
+        <v>0.0002231589385152242</v>
       </c>
       <c r="L57">
-        <v>0.07167821812805855</v>
+        <v>0.0716782181280587</v>
       </c>
       <c r="M57">
-        <v>565.7294782791307</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.0716782181280587</v>
+      </c>
+      <c r="N57">
+        <v>565.7294782791314</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>152.2355360016698</v>
+        <v>152.2355360016696</v>
       </c>
       <c r="B58">
-        <v>764139.6237004568</v>
+        <v>764139.6237004314</v>
       </c>
       <c r="C58">
-        <v>686.5763163941089</v>
+        <v>686.5763163940841</v>
       </c>
       <c r="D58">
-        <v>25125.72812944071</v>
+        <v>25125.72812944074</v>
       </c>
       <c r="E58">
-        <v>7899.310367715384</v>
+        <v>7899.310367715417</v>
       </c>
       <c r="F58">
-        <v>6816.75186640991</v>
+        <v>6816.751866409936</v>
       </c>
       <c r="G58">
-        <v>6.655439736877126</v>
+        <v>6.655439736877181</v>
       </c>
       <c r="H58">
-        <v>28.36804314583644</v>
+        <v>28.36804314583643</v>
       </c>
       <c r="I58">
-        <v>3.907028024187355E-09</v>
+        <v>3.907028024187333E-09</v>
       </c>
       <c r="J58">
-        <v>3.906202723526162E-09</v>
+        <v>3.906202723526138E-09</v>
       </c>
       <c r="K58">
-        <v>0.0002172772288203369</v>
+        <v>0.0002172772288203379</v>
       </c>
       <c r="L58">
-        <v>0.07054272097996842</v>
+        <v>0.07054272097996858</v>
       </c>
       <c r="M58">
-        <v>558.928107836091</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.07054272097996858</v>
+      </c>
+      <c r="N58">
+        <v>558.9281078360913</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>153.719490776526</v>
+        <v>153.7194907765258</v>
       </c>
       <c r="B59">
-        <v>819911.1077274282</v>
+        <v>819911.1077274233</v>
       </c>
       <c r="C59">
-        <v>734.6135413423578</v>
+        <v>734.6135413423544</v>
       </c>
       <c r="D59">
-        <v>24966.02432734855</v>
+        <v>24966.02432734857</v>
       </c>
       <c r="E59">
-        <v>7829.144977570899</v>
+        <v>7829.144977570897</v>
       </c>
       <c r="F59">
-        <v>6745.873891969502</v>
+        <v>6745.873891969505</v>
       </c>
       <c r="G59">
-        <v>6.603617598800379</v>
+        <v>6.603617598800329</v>
       </c>
       <c r="H59">
-        <v>28.80196181762804</v>
+        <v>28.80196181762787</v>
       </c>
       <c r="I59">
-        <v>4.076486933793536E-09</v>
+        <v>4.076486933793498E-09</v>
       </c>
       <c r="J59">
-        <v>4.045984767473305E-09</v>
+        <v>4.045984767473278E-09</v>
       </c>
       <c r="K59">
-        <v>0.000211567637236532</v>
+        <v>0.000211567637236533</v>
       </c>
       <c r="L59">
-        <v>0.06942859733085779</v>
+        <v>0.06942859733085797</v>
       </c>
       <c r="M59">
-        <v>552.1008886675387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.06942859733085797</v>
+      </c>
+      <c r="N59">
+        <v>552.1008886675409</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>155.2034455513823</v>
+        <v>155.203445551382</v>
       </c>
       <c r="B60">
-        <v>878578.5603207037</v>
+        <v>878578.5603206941</v>
       </c>
       <c r="C60">
-        <v>785.2332971932831</v>
+        <v>785.2332971932748</v>
       </c>
       <c r="D60">
-        <v>24804.29168087571</v>
+        <v>24804.29168087574</v>
       </c>
       <c r="E60">
-        <v>7757.168077795058</v>
+        <v>7757.168077795079</v>
       </c>
       <c r="F60">
-        <v>6673.712669034048</v>
+        <v>6673.71266903407</v>
       </c>
       <c r="G60">
-        <v>6.552213467018969</v>
+        <v>6.552213467018992</v>
       </c>
       <c r="H60">
-        <v>29.26783085431588</v>
+        <v>29.26783085431581</v>
       </c>
       <c r="I60">
-        <v>4.257908092035323E-09</v>
+        <v>4.257908092035293E-09</v>
       </c>
       <c r="J60">
-        <v>4.189053221854056E-09</v>
+        <v>4.189053221854033E-09</v>
       </c>
       <c r="K60">
-        <v>0.0002060202776171979</v>
+        <v>0.0002060202776171987</v>
       </c>
       <c r="L60">
-        <v>0.06833502643394551</v>
+        <v>0.06833502643394569</v>
       </c>
       <c r="M60">
-        <v>545.2442513043435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.06833502643394569</v>
+      </c>
+      <c r="N60">
+        <v>545.2442513043445</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>156.6874003262385</v>
+        <v>156.6874003262383</v>
       </c>
       <c r="B61">
-        <v>940227.6913453699</v>
+        <v>940227.6913453535</v>
       </c>
       <c r="C61">
-        <v>838.5522251848519</v>
+        <v>838.5522251848365</v>
       </c>
       <c r="D61">
-        <v>24640.40270262669</v>
+        <v>24640.40270262672</v>
       </c>
       <c r="E61">
-        <v>7683.301866093145</v>
+        <v>7683.301866093156</v>
       </c>
       <c r="F61">
-        <v>6600.208630736161</v>
+        <v>6600.208630736169</v>
       </c>
       <c r="G61">
-        <v>6.501138411810739</v>
+        <v>6.501138411810809</v>
       </c>
       <c r="H61">
-        <v>29.76665467994931</v>
+        <v>29.76665467994933</v>
       </c>
       <c r="I61">
-        <v>4.452404750827157E-09</v>
+        <v>4.452404750827125E-09</v>
       </c>
       <c r="J61">
-        <v>4.335535671314328E-09</v>
+        <v>4.335535671314303E-09</v>
       </c>
       <c r="K61">
-        <v>0.0002006262390577801</v>
+        <v>0.0002006262390577809</v>
       </c>
       <c r="L61">
-        <v>0.06726052694733026</v>
+        <v>0.06726052694733045</v>
       </c>
       <c r="M61">
-        <v>538.3547201618321</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.06726052694733045</v>
+      </c>
+      <c r="N61">
+        <v>538.3547201618328</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>158.1713551010948</v>
+        <v>158.1713551010945</v>
       </c>
       <c r="B62">
-        <v>1004944.707988072</v>
+        <v>1004944.707988066</v>
       </c>
       <c r="C62">
-        <v>894.6945435375189</v>
+        <v>894.6945435375156</v>
       </c>
       <c r="D62">
-        <v>24474.22647561837</v>
+        <v>24474.22647561839</v>
       </c>
       <c r="E62">
-        <v>7607.464959119813</v>
+        <v>7607.464959119829</v>
       </c>
       <c r="F62">
-        <v>6525.29970865194</v>
+        <v>6525.299708651951</v>
       </c>
       <c r="G62">
-        <v>6.450327114363358</v>
+        <v>6.450327114363335</v>
       </c>
       <c r="H62">
-        <v>30.29962759433036</v>
+        <v>30.29962759433027</v>
       </c>
       <c r="I62">
-        <v>4.661219357900983E-09</v>
+        <v>4.661219357900957E-09</v>
       </c>
       <c r="J62">
-        <v>4.485578328295622E-09</v>
+        <v>4.485578328295604E-09</v>
       </c>
       <c r="K62">
-        <v>0.0001953774592097791</v>
+        <v>0.0001953774592097798</v>
       </c>
       <c r="L62">
-        <v>0.0662031692628028</v>
+        <v>0.06620316926280292</v>
       </c>
       <c r="M62">
-        <v>531.4289224535821</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.06620316926280292</v>
+      </c>
+      <c r="N62">
+        <v>531.4289224535834</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>159.655309875951</v>
+        <v>159.6553098759508</v>
       </c>
       <c r="B63">
-        <v>1072816.360798498</v>
+        <v>1072816.360798484</v>
       </c>
       <c r="C63">
-        <v>953.792973351732</v>
+        <v>953.7929733517199</v>
       </c>
       <c r="D63">
-        <v>24305.62824607882</v>
+        <v>24305.62824607884</v>
       </c>
       <c r="E63">
-        <v>7529.571802825149</v>
+        <v>7529.571802825168</v>
       </c>
       <c r="F63">
-        <v>6448.92085999518</v>
+        <v>6448.920859995193</v>
       </c>
       <c r="G63">
-        <v>6.399735599300493</v>
+        <v>6.39973559930049</v>
       </c>
       <c r="H63">
-        <v>30.86814548436102</v>
+        <v>30.86814548436103</v>
       </c>
       <c r="I63">
-        <v>4.885741673981395E-09</v>
+        <v>4.885741673981378E-09</v>
       </c>
       <c r="J63">
-        <v>4.639347035356484E-09</v>
+        <v>4.639347035356461E-09</v>
       </c>
       <c r="K63">
-        <v>0.0001902666088770997</v>
+        <v>0.0001902666088771005</v>
       </c>
       <c r="L63">
-        <v>0.06516075303386766</v>
+        <v>0.06516075303386781</v>
       </c>
       <c r="M63">
-        <v>524.4635936248135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.06516075303386781</v>
+      </c>
+      <c r="N63">
+        <v>524.4635936248144</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>161.1392646508073</v>
+        <v>161.139264650807</v>
       </c>
       <c r="B64">
-        <v>1143930.004979305</v>
+        <v>1143930.004979287</v>
       </c>
       <c r="C64">
-        <v>1015.989799390392</v>
+        <v>1015.989799390375</v>
       </c>
       <c r="D64">
-        <v>24134.46900360755</v>
+        <v>24134.46900360758</v>
       </c>
       <c r="E64">
-        <v>7449.532035676853</v>
+        <v>7449.532035676856</v>
       </c>
       <c r="F64">
-        <v>6371.003556274828</v>
+        <v>6371.003556274835</v>
       </c>
       <c r="G64">
-        <v>6.349339369812682</v>
+        <v>6.349339369812692</v>
       </c>
       <c r="H64">
-        <v>31.47382076788016</v>
+        <v>31.47382076788001</v>
       </c>
       <c r="I64">
-        <v>5.127529924842822E-09</v>
+        <v>5.127529924842764E-09</v>
       </c>
       <c r="J64">
-        <v>4.79702831577437E-09</v>
+        <v>4.797028315774334E-09</v>
       </c>
       <c r="K64">
-        <v>0.0001852869872806254</v>
+        <v>0.0001852869872806266</v>
       </c>
       <c r="L64">
-        <v>0.06413094833019981</v>
+        <v>0.06413094833020003</v>
       </c>
       <c r="M64">
-        <v>517.4555797249312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.06413094833020003</v>
+      </c>
+      <c r="N64">
+        <v>517.4555797249328</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>162.6232194256635</v>
+        <v>162.6232194256633</v>
       </c>
       <c r="B65">
-        <v>1218373.67854387</v>
+        <v>1218373.678543844</v>
       </c>
       <c r="C65">
-        <v>1081.438086452105</v>
+        <v>1081.438086452079</v>
       </c>
       <c r="D65">
-        <v>23960.60504579047</v>
+        <v>23960.60504579049</v>
       </c>
       <c r="E65">
-        <v>7367.249798846242</v>
+        <v>7367.249798846266</v>
       </c>
       <c r="F65">
-        <v>6291.475227488198</v>
+        <v>6291.475227488216</v>
       </c>
       <c r="G65">
-        <v>6.299131901875601</v>
+        <v>6.299131901875619</v>
       </c>
       <c r="H65">
-        <v>32.1185010693608</v>
+        <v>32.11850106936081</v>
       </c>
       <c r="I65">
-        <v>5.388335593791126E-09</v>
+        <v>5.388335593791098E-09</v>
       </c>
       <c r="J65">
-        <v>4.958830488437045E-09</v>
+        <v>4.958830488437014E-09</v>
       </c>
       <c r="K65">
-        <v>0.0001804324274920188</v>
+        <v>0.0001804324274920196</v>
       </c>
       <c r="L65">
-        <v>0.0631114033878417</v>
+        <v>0.06311140338784185</v>
       </c>
       <c r="M65">
-        <v>510.4018370532182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.06311140338784185</v>
+      </c>
+      <c r="N65">
+        <v>510.4018370532191</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>164.1071742005198</v>
+        <v>164.1071742005195</v>
       </c>
       <c r="B66">
-        <v>1296236.199082357</v>
+        <v>1296236.199082342</v>
       </c>
       <c r="C66">
-        <v>1150.303075183489</v>
+        <v>1150.303075183475</v>
       </c>
       <c r="D66">
-        <v>23783.88752376282</v>
+        <v>23783.88752376285</v>
       </c>
       <c r="E66">
-        <v>7282.622987116023</v>
+        <v>7282.622987116033</v>
       </c>
       <c r="F66">
-        <v>6210.258655422822</v>
+        <v>6210.258655422828</v>
       </c>
       <c r="G66">
-        <v>6.249123459527866</v>
+        <v>6.249123459527849</v>
       </c>
       <c r="H66">
-        <v>32.80429227665815</v>
+        <v>32.80429227665811</v>
       </c>
       <c r="I66">
-        <v>5.670132603216266E-09</v>
+        <v>5.670132603216236E-09</v>
       </c>
       <c r="J66">
-        <v>5.124984864393936E-09</v>
+        <v>5.124984864393912E-09</v>
       </c>
       <c r="K66">
-        <v>0.0001756972116177391</v>
+        <v>0.0001756972116177398</v>
       </c>
       <c r="L66">
-        <v>0.06209982423277381</v>
+        <v>0.06209982423277394</v>
       </c>
       <c r="M66">
-        <v>503.2994293331418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.06209982423277394</v>
+      </c>
+      <c r="N66">
+        <v>503.2994293331429</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>165.591128975376</v>
+        <v>165.5911289753758</v>
       </c>
       <c r="B67">
         <v>1377607.280981571</v>
       </c>
       <c r="C67">
-        <v>1222.763784748586</v>
+        <v>1222.76378474859</v>
       </c>
       <c r="D67">
-        <v>23604.1619643936</v>
+        <v>23604.16196439365</v>
       </c>
       <c r="E67">
-        <v>7195.542433930625</v>
+        <v>7195.542433930644</v>
       </c>
       <c r="F67">
-        <v>6127.271309072321</v>
+        <v>6127.271309072346</v>
       </c>
       <c r="G67">
-        <v>6.1993401981673</v>
+        <v>6.199340198167311</v>
       </c>
       <c r="H67">
-        <v>33.53358681714653</v>
+        <v>33.53358681714635</v>
       </c>
       <c r="I67">
-        <v>5.975151816487817E-09</v>
+        <v>5.975151816487725E-09</v>
       </c>
       <c r="J67">
-        <v>5.2957470442146E-09</v>
+        <v>5.295747044214563E-09</v>
       </c>
       <c r="K67">
-        <v>0.0001710759953669045</v>
+        <v>0.0001710759953669056</v>
       </c>
       <c r="L67">
-        <v>0.06109403215741753</v>
+        <v>0.06109403215741776</v>
       </c>
       <c r="M67">
-        <v>496.1455225988917</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.06109403215741776</v>
+      </c>
+      <c r="N67">
+        <v>496.145522598894</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>167.0750837502323</v>
+        <v>167.075083750232</v>
       </c>
       <c r="B68">
-        <v>1462577.675021242</v>
+        <v>1462577.675021212</v>
       </c>
       <c r="C68">
-        <v>1299.014853793358</v>
+        <v>1299.014853793328</v>
       </c>
       <c r="D68">
-        <v>23421.26776365783</v>
+        <v>23421.26776365786</v>
       </c>
       <c r="E68">
-        <v>7105.89102369899</v>
+        <v>7105.891023699001</v>
       </c>
       <c r="F68">
-        <v>6042.424614545505</v>
+        <v>6042.424614545512</v>
       </c>
       <c r="G68">
-        <v>6.149823527346531</v>
+        <v>6.149823527346528</v>
       </c>
       <c r="H68">
-        <v>34.30909823228809</v>
+        <v>34.30909823228793</v>
       </c>
       <c r="I68">
-        <v>6.305922026103777E-09</v>
+        <v>6.305922026103724E-09</v>
       </c>
       <c r="J68">
-        <v>5.471398337642392E-09</v>
+        <v>5.471398337642364E-09</v>
       </c>
       <c r="K68">
-        <v>0.0001665637416680427</v>
+        <v>0.0001665637416680434</v>
       </c>
       <c r="L68">
-        <v>0.06009200472954147</v>
+        <v>0.06009200472954161</v>
       </c>
       <c r="M68">
-        <v>488.9373779123998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.06009200472954161</v>
+      </c>
+      <c r="N68">
+        <v>488.9373779124009</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>168.5590385250885</v>
+        <v>168.5590385250883</v>
       </c>
       <c r="B69">
-        <v>1551239.332299654</v>
+        <v>1551239.332299624</v>
       </c>
       <c r="C69">
-        <v>1379.268655605219</v>
+        <v>1379.268655605188</v>
       </c>
       <c r="D69">
-        <v>23235.03764427822</v>
+        <v>23235.03764427825</v>
       </c>
       <c r="E69">
-        <v>7013.542724241676</v>
+        <v>7013.542724241696</v>
       </c>
       <c r="F69">
-        <v>5955.623151195695</v>
+        <v>5955.623151195712</v>
       </c>
       <c r="G69">
-        <v>6.100629708610259</v>
+        <v>6.100629708610245</v>
       </c>
       <c r="H69">
-        <v>35.13390343807693</v>
+        <v>35.13390343807674</v>
       </c>
       <c r="I69">
-        <v>6.665318897585565E-09</v>
+        <v>6.665318897585484E-09</v>
       </c>
       <c r="J69">
-        <v>5.652247330131353E-09</v>
+        <v>5.652247330131315E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001621556630144953</v>
+        <v>0.000162155663014496</v>
       </c>
       <c r="L69">
-        <v>0.0590919051855701</v>
+        <v>0.05909190518557029</v>
       </c>
       <c r="M69">
-        <v>481.6723419701826</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.05909190518557029</v>
+      </c>
+      <c r="N69">
+        <v>481.6723419701845</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>170.0429932999448</v>
+        <v>170.0429932999445</v>
       </c>
       <c r="B70">
-        <v>1643685.59439846</v>
+        <v>1643685.594398448</v>
       </c>
       <c r="C70">
-        <v>1463.757728211533</v>
+        <v>1463.757728211524</v>
       </c>
       <c r="D70">
-        <v>23045.29706874157</v>
+        <v>23045.29706874162</v>
       </c>
       <c r="E70">
-        <v>6918.361532257686</v>
+        <v>6918.361532257691</v>
       </c>
       <c r="F70">
-        <v>5866.763765079698</v>
+        <v>5866.763765079708</v>
       </c>
       <c r="G70">
-        <v>6.05182966757439</v>
+        <v>6.051829667574387</v>
       </c>
       <c r="H70">
-        <v>36.0114944565321</v>
+        <v>36.01149445653178</v>
       </c>
       <c r="I70">
-        <v>7.056623734245516E-09</v>
+        <v>7.056623734245391E-09</v>
       </c>
       <c r="J70">
-        <v>5.838631624957745E-09</v>
+        <v>5.838631624957705E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001578471722195602</v>
+        <v>0.0001578471722195612</v>
       </c>
       <c r="L70">
-        <v>0.05809210402943366</v>
+        <v>0.05809210402943389</v>
       </c>
       <c r="M70">
-        <v>474.3478356068984</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.05809210402943389</v>
+      </c>
+      <c r="N70">
+        <v>474.3478356069008</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>171.526948074801</v>
+        <v>171.5269480748007</v>
       </c>
       <c r="B71">
-        <v>1740011.411539498</v>
+        <v>1740011.411539462</v>
       </c>
       <c r="C71">
-        <v>1552.737565232644</v>
+        <v>1552.737565232606</v>
       </c>
       <c r="D71">
-        <v>22851.86359617443</v>
+        <v>22851.86359617446</v>
       </c>
       <c r="E71">
-        <v>6820.200325041032</v>
+        <v>6820.20032504106</v>
       </c>
       <c r="F71">
-        <v>5775.734590375129</v>
+        <v>5775.734590375148</v>
       </c>
       <c r="G71">
-        <v>6.003509002733423</v>
+        <v>6.003509002733438</v>
       </c>
       <c r="H71">
-        <v>36.94584191952524</v>
+        <v>36.94584191952508</v>
       </c>
       <c r="I71">
-        <v>7.483594447442308E-09</v>
+        <v>7.483594447442235E-09</v>
       </c>
       <c r="J71">
-        <v>6.03091979503134E-09</v>
+        <v>6.030919795031299E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001536338412522538</v>
+        <v>0.0001536338412522546</v>
       </c>
       <c r="L71">
-        <v>0.05709119561892426</v>
+        <v>0.05709119561892446</v>
       </c>
       <c r="M71">
-        <v>466.961340156595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.05709119561892446</v>
+      </c>
+      <c r="N71">
+        <v>466.9613401565961</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>173.0109028496572</v>
+        <v>173.010902849657</v>
       </c>
       <c r="B72">
-        <v>1840313.590158712</v>
+        <v>1840313.59015872</v>
       </c>
       <c r="C72">
-        <v>1646.489818298143</v>
+        <v>1646.489818298158</v>
       </c>
       <c r="D72">
-        <v>22654.54616810499</v>
+        <v>22654.54616810501</v>
       </c>
       <c r="E72">
-        <v>6718.899612674723</v>
+        <v>6718.899612674721</v>
       </c>
       <c r="F72">
-        <v>5682.413969222666</v>
+        <v>5682.413969222664</v>
       </c>
       <c r="G72">
-        <v>5.955768176455426</v>
+        <v>5.955768176455443</v>
       </c>
       <c r="H72">
-        <v>37.94147332021569</v>
+        <v>37.94147332021561</v>
       </c>
       <c r="I72">
-        <v>7.950551804404661E-09</v>
+        <v>7.950551804404612E-09</v>
       </c>
       <c r="J72">
-        <v>6.229513585721916E-09</v>
+        <v>6.229513585721893E-09</v>
       </c>
       <c r="K72">
-        <v>0.0001495113678036856</v>
+        <v>0.0001495113678036861</v>
       </c>
       <c r="L72">
-        <v>0.05608801157578167</v>
+        <v>0.0560880115757818</v>
       </c>
       <c r="M72">
-        <v>459.5103815937117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.0560880115757818</v>
+      </c>
+      <c r="N72">
+        <v>459.5103815937125</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>174.4948576245135</v>
+        <v>174.4948576245132</v>
       </c>
       <c r="B73">
-        <v>1944691.070739955</v>
+        <v>1944691.070739947</v>
       </c>
       <c r="C73">
-        <v>1745.325966194432</v>
+        <v>1745.325966194428</v>
       </c>
       <c r="D73">
-        <v>22453.14430358528</v>
+        <v>22453.14430358533</v>
       </c>
       <c r="E73">
-        <v>6614.286186970403</v>
+        <v>6614.286186970419</v>
       </c>
       <c r="F73">
-        <v>5586.6692608931</v>
+        <v>5586.669260893117</v>
       </c>
       <c r="G73">
-        <v>5.908722876349841</v>
+        <v>5.908722876349839</v>
       </c>
       <c r="H73">
-        <v>39.00356987339445</v>
+        <v>39.00356987339413</v>
       </c>
       <c r="I73">
-        <v>8.462484942938715E-09</v>
+        <v>8.462484942938571E-09</v>
       </c>
       <c r="J73">
-        <v>6.434850419538931E-09</v>
+        <v>6.434850419538885E-09</v>
       </c>
       <c r="K73">
-        <v>0.0001454755492018526</v>
+        <v>0.0001454755492018536</v>
       </c>
       <c r="L73">
-        <v>0.05508163204561014</v>
+        <v>0.0550816320456104</v>
       </c>
       <c r="M73">
-        <v>451.9925123440069</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.0550816320456104</v>
+      </c>
+      <c r="N73">
+        <v>451.992512344009</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>175.9788123993698</v>
+        <v>175.9788123993695</v>
       </c>
       <c r="B74">
-        <v>2053245.235789386</v>
+        <v>2053245.235789371</v>
       </c>
       <c r="C74">
-        <v>1849.591508684269</v>
+        <v>1849.591508684257</v>
       </c>
       <c r="D74">
-        <v>22247.44717816267</v>
+        <v>22247.44717816272</v>
       </c>
       <c r="E74">
-        <v>6506.171667115597</v>
+        <v>6506.171667115633</v>
       </c>
       <c r="F74">
-        <v>5488.355532655355</v>
+        <v>5488.355532655392</v>
       </c>
       <c r="G74">
-        <v>5.862504537801168</v>
+        <v>5.862504537801161</v>
       </c>
       <c r="H74">
-        <v>40.13808701936074</v>
+        <v>40.13808701936038</v>
       </c>
       <c r="I74">
-        <v>9.025181376706696E-09</v>
+        <v>9.025181376706544E-09</v>
       </c>
       <c r="J74">
-        <v>6.647406266125649E-09</v>
+        <v>6.647406266125599E-09</v>
       </c>
       <c r="K74">
-        <v>0.0001415222632473899</v>
+        <v>0.0001415222632473908</v>
       </c>
       <c r="L74">
-        <v>0.0540713951681719</v>
+        <v>0.05407139516817214</v>
       </c>
       <c r="M74">
-        <v>444.4052906303106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.05407139516817214</v>
+      </c>
+      <c r="N74">
+        <v>444.4052906303126</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>177.462767174226</v>
+        <v>177.4627671742257</v>
       </c>
       <c r="B75">
-        <v>2166080.246321374</v>
+        <v>2166080.246321346</v>
       </c>
       <c r="C75">
-        <v>1959.670742577314</v>
+        <v>1959.670742577285</v>
       </c>
       <c r="D75">
-        <v>22037.23255332071</v>
+        <v>22037.23255332075</v>
       </c>
       <c r="E75">
-        <v>6394.350948209646</v>
+        <v>6394.350948209672</v>
       </c>
       <c r="F75">
-        <v>5387.314127907369</v>
+        <v>5387.314127907393</v>
       </c>
       <c r="G75">
-        <v>5.817261021044637</v>
+        <v>5.81726102104462</v>
       </c>
       <c r="H75">
-        <v>41.35190517228271</v>
+        <v>41.35190517228249</v>
       </c>
       <c r="I75">
-        <v>9.645388391131169E-09</v>
+        <v>9.645388391131037E-09</v>
       </c>
       <c r="J75">
-        <v>6.867698957801988E-09</v>
+        <v>6.867698957801947E-09</v>
       </c>
       <c r="K75">
-        <v>0.0001376474554811297</v>
+        <v>0.0001376474554811305</v>
       </c>
       <c r="L75">
-        <v>0.0530569045910862</v>
+        <v>0.0530569045910864</v>
       </c>
       <c r="M75">
-        <v>436.7462571984747</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.0530569045910864</v>
+      </c>
+      <c r="N75">
+        <v>436.7462571984768</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>178.9467219490822</v>
+        <v>178.9467219490819</v>
       </c>
       <c r="B76">
-        <v>2283303.40291345</v>
+        <v>2283303.402913423</v>
       </c>
       <c r="C76">
-        <v>2075.992171651324</v>
+        <v>2075.992171651297</v>
       </c>
       <c r="D76">
-        <v>21822.26551264341</v>
+        <v>21822.26551264347</v>
       </c>
       <c r="E76">
-        <v>6278.600568871493</v>
+        <v>6278.60056887152</v>
       </c>
       <c r="F76">
-        <v>5283.371113026659</v>
+        <v>5283.371113026683</v>
       </c>
       <c r="G76">
-        <v>5.773157438979814</v>
+        <v>5.773157438979812</v>
       </c>
       <c r="H76">
-        <v>42.65301942426031</v>
+        <v>42.65301942425995</v>
       </c>
       <c r="I76">
-        <v>1.033101502884565E-08</v>
+        <v>1.033101502884547E-08</v>
       </c>
       <c r="J76">
-        <v>7.09629205324354E-09</v>
+        <v>7.096292053243484E-09</v>
       </c>
       <c r="K76">
-        <v>0.0001338471323114037</v>
+        <v>0.0001338471323114047</v>
       </c>
       <c r="L76">
-        <v>0.052038034459205</v>
+        <v>0.05203803445920524</v>
       </c>
       <c r="M76">
-        <v>429.0129092513151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.05203803445920524</v>
+      </c>
+      <c r="N76">
+        <v>429.0129092513172</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>180.4306767239385</v>
+        <v>180.4306767239382</v>
       </c>
       <c r="B77">
-        <v>2405025.523928155</v>
+        <v>2405025.523928152</v>
       </c>
       <c r="C77">
-        <v>2199.034586603259</v>
+        <v>2199.034586603264</v>
       </c>
       <c r="D77">
-        <v>21602.29694724521</v>
+        <v>21602.29694724526</v>
       </c>
       <c r="E77">
-        <v>6158.677029618711</v>
+        <v>6158.67702961872</v>
       </c>
       <c r="F77">
-        <v>5176.335614441541</v>
+        <v>5176.335614441555</v>
       </c>
       <c r="G77">
-        <v>5.730377135229445</v>
+        <v>5.730377135229467</v>
       </c>
       <c r="H77">
-        <v>44.05077978895207</v>
+        <v>44.05077978895173</v>
       </c>
       <c r="I77">
-        <v>1.10913870492444E-08</v>
+        <v>1.109138704924421E-08</v>
       </c>
       <c r="J77">
-        <v>7.333799381806387E-09</v>
+        <v>7.333799381806339E-09</v>
       </c>
       <c r="K77">
-        <v>0.0001301173593181526</v>
+        <v>0.0001301173593181534</v>
       </c>
       <c r="L77">
-        <v>0.05101493102727254</v>
+        <v>0.05101493102727276</v>
       </c>
       <c r="M77">
-        <v>421.2026713962317</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.05101493102727276</v>
+      </c>
+      <c r="N77">
+        <v>421.2026713962333</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>181.9146314987948</v>
+        <v>181.9146314987944</v>
       </c>
       <c r="B78">
-        <v>2531361.32840402</v>
+        <v>2531361.328404007</v>
       </c>
       <c r="C78">
-        <v>2329.333820572085</v>
+        <v>2329.333820572078</v>
       </c>
       <c r="D78">
-        <v>21377.06171475239</v>
+        <v>21377.06171475245</v>
       </c>
       <c r="E78">
-        <v>6034.315117056455</v>
+        <v>6034.315117056473</v>
       </c>
       <c r="F78">
-        <v>5065.998073632436</v>
+        <v>5065.998073632455</v>
       </c>
       <c r="G78">
-        <v>5.689122816224705</v>
+        <v>5.689122816224725</v>
       </c>
       <c r="H78">
-        <v>45.55619752529431</v>
+        <v>45.55619752529382</v>
       </c>
       <c r="I78">
-        <v>1.193757171134545E-08</v>
+        <v>1.193757171134519E-08</v>
       </c>
       <c r="J78">
-        <v>7.580890441293089E-09</v>
+        <v>7.580890441293027E-09</v>
       </c>
       <c r="K78">
-        <v>0.0001264542639032857</v>
+        <v>0.0001264542639032866</v>
       </c>
       <c r="L78">
-        <v>0.04998800986661165</v>
+        <v>0.04998800986661191</v>
       </c>
       <c r="M78">
-        <v>413.3128633723675</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.04998800986661191</v>
+      </c>
+      <c r="N78">
+        <v>413.3128633723697</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>183.398586273651</v>
+        <v>183.3985862736507</v>
       </c>
       <c r="B79">
-        <v>2662429.80373339</v>
+        <v>2662429.803733356</v>
       </c>
       <c r="C79">
-        <v>2467.490131517381</v>
+        <v>2467.490131517342</v>
       </c>
       <c r="D79">
-        <v>21146.2763715857</v>
+        <v>21146.27637158577</v>
       </c>
       <c r="E79">
-        <v>5905.226322969486</v>
+        <v>5905.226322969518</v>
       </c>
       <c r="F79">
-        <v>4952.128472840441</v>
+        <v>4952.128472840471</v>
       </c>
       <c r="G79">
-        <v>5.649617846977406</v>
+        <v>5.649617846977439</v>
       </c>
       <c r="H79">
-        <v>47.18233860414803</v>
+        <v>47.18233860414742</v>
       </c>
       <c r="I79">
-        <v>1.288279556399782E-08</v>
+        <v>1.288279556399748E-08</v>
       </c>
       <c r="J79">
-        <v>7.838296876600231E-09</v>
+        <v>7.838296876600155E-09</v>
       </c>
       <c r="K79">
-        <v>0.0001228540412607365</v>
+        <v>0.0001228540412607377</v>
       </c>
       <c r="L79">
-        <v>0.04895794756084144</v>
+        <v>0.04895794756084179</v>
       </c>
       <c r="M79">
-        <v>405.3406642425988</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.04895794756084179</v>
+      </c>
+      <c r="N79">
+        <v>405.3406642426014</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>184.8825410485072</v>
+        <v>184.8825410485069</v>
       </c>
       <c r="B80">
-        <v>2798354.527705981</v>
+        <v>2798354.527705957</v>
       </c>
       <c r="C80">
-        <v>2614.176073134136</v>
+        <v>2614.176073134113</v>
       </c>
       <c r="D80">
-        <v>20909.63634491763</v>
+        <v>20909.63634491769</v>
       </c>
       <c r="E80">
-        <v>5771.097495419311</v>
+        <v>5771.097495419333</v>
       </c>
       <c r="F80">
-        <v>4834.474621527865</v>
+        <v>4834.474621527889</v>
       </c>
       <c r="G80">
-        <v>5.612107728717546</v>
+        <v>5.612107728717551</v>
       </c>
       <c r="H80">
-        <v>48.944833203079</v>
+        <v>48.94483320307832</v>
       </c>
       <c r="I80">
-        <v>1.394298753798883E-08</v>
+        <v>1.394298753798848E-08</v>
       </c>
       <c r="J80">
-        <v>8.106820341513955E-09</v>
+        <v>8.10682034151389E-09</v>
       </c>
       <c r="K80">
-        <v>0.0001193129623800155</v>
+        <v>0.0001193129623800164</v>
       </c>
       <c r="L80">
-        <v>0.04792566680371066</v>
+        <v>0.04792566680371094</v>
       </c>
       <c r="M80">
-        <v>397.2830725751235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.04792566680371094</v>
+      </c>
+      <c r="N80">
+        <v>397.2830725751259</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>186.3664958233635</v>
+        <v>186.3664958233632</v>
       </c>
       <c r="B81">
-        <v>2939263.899722098</v>
+        <v>2939263.89972204</v>
       </c>
       <c r="C81">
-        <v>2770.144575748074</v>
+        <v>2770.144575747994</v>
       </c>
       <c r="D81">
-        <v>20666.81236459691</v>
+        <v>20666.81236459695</v>
       </c>
       <c r="E81">
-        <v>5631.58992372925</v>
+        <v>5631.589923729283</v>
       </c>
       <c r="F81">
-        <v>4712.760646716332</v>
+        <v>4712.760646716358</v>
       </c>
       <c r="G81">
-        <v>5.576861789237315</v>
+        <v>5.576861789237317</v>
       </c>
       <c r="H81">
-        <v>50.86254137813346</v>
+        <v>50.86254137813292</v>
       </c>
       <c r="I81">
-        <v>1.513749293330276E-08</v>
+        <v>1.513749293330252E-08</v>
       </c>
       <c r="J81">
-        <v>8.387342149574192E-09</v>
+        <v>8.387342149574148E-09</v>
       </c>
       <c r="K81">
-        <v>0.0001158273824530003</v>
+        <v>0.0001158273824530008</v>
       </c>
       <c r="L81">
-        <v>0.0468923139128062</v>
+        <v>0.04689231391280638</v>
       </c>
       <c r="M81">
-        <v>389.1368618344537</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.04689231391280638</v>
+      </c>
+      <c r="N81">
+        <v>389.136861834455</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>187.8504505982197</v>
+        <v>187.8504505982194</v>
       </c>
       <c r="B82">
-        <v>3085291.215730933</v>
+        <v>3085291.215730843</v>
       </c>
       <c r="C82">
-        <v>2936.236750083563</v>
+        <v>2936.236750083429</v>
       </c>
       <c r="D82">
-        <v>20417.44591063695</v>
+        <v>20417.44591063699</v>
       </c>
       <c r="E82">
-        <v>5486.339141248282</v>
+        <v>5486.339141248354</v>
       </c>
       <c r="F82">
-        <v>4586.685901913399</v>
+        <v>4586.685901913454</v>
       </c>
       <c r="G82">
-        <v>5.54417513601024</v>
+        <v>5.544175136010243</v>
       </c>
       <c r="H82">
-        <v>52.95843157540941</v>
+        <v>52.95843157540904</v>
       </c>
       <c r="I82">
-        <v>1.649002362814787E-08</v>
+        <v>1.649002362814767E-08</v>
       </c>
       <c r="J82">
-        <v>8.680835265495587E-09</v>
+        <v>8.680835265495538E-09</v>
       </c>
       <c r="K82">
-        <v>0.0001123937475964996</v>
+        <v>0.0001123937475965001</v>
       </c>
       <c r="L82">
-        <v>0.04585922793743298</v>
+        <v>0.04585922793743312</v>
       </c>
       <c r="M82">
-        <v>380.8985296492998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.04585922793743312</v>
+      </c>
+      <c r="N82">
+        <v>380.8985296493007</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>189.334405373076</v>
+        <v>189.3344053730756</v>
       </c>
       <c r="B83">
-        <v>3236574.494528249</v>
+        <v>3236574.494528166</v>
       </c>
       <c r="C83">
-        <v>3113.388634422378</v>
+        <v>3113.388634422249</v>
       </c>
       <c r="D83">
-        <v>20161.14333938278</v>
+        <v>20161.14333938283</v>
       </c>
       <c r="E83">
-        <v>5334.955823041884</v>
+        <v>5334.95582304196</v>
       </c>
       <c r="F83">
-        <v>4455.924598383652</v>
+        <v>4455.924598383708</v>
       </c>
       <c r="G83">
-        <v>5.514370951676107</v>
+        <v>5.514370951676113</v>
       </c>
       <c r="H83">
-        <v>55.26075333790407</v>
+        <v>55.26075333790373</v>
       </c>
       <c r="I83">
-        <v>1.802993965441157E-08</v>
+        <v>1.802993965441133E-08</v>
       </c>
       <c r="J83">
-        <v>8.98837939629622E-09</v>
+        <v>8.988379396296159E-09</v>
       </c>
       <c r="K83">
-        <v>0.0001090085971915628</v>
+        <v>0.0001090085971915634</v>
       </c>
       <c r="L83">
-        <v>0.04482790073738277</v>
+        <v>0.04482790073738294</v>
       </c>
       <c r="M83">
-        <v>372.5642386646459</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.04482790073738294</v>
+      </c>
+      <c r="N83">
+        <v>372.5642386646471</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>190.8183601479323</v>
+        <v>190.8183601479319</v>
       </c>
       <c r="B84">
-        <v>3393255.928808707</v>
+        <v>3393255.928808718</v>
       </c>
       <c r="C84">
-        <v>3302.635728024286</v>
+        <v>3302.635728024331</v>
       </c>
       <c r="D84">
-        <v>19897.46821687041</v>
+        <v>19897.46821687049</v>
       </c>
       <c r="E84">
-        <v>5177.028239844887</v>
+        <v>5177.028239844891</v>
       </c>
       <c r="F84">
-        <v>4320.1265583544</v>
+        <v>4320.126558354414</v>
       </c>
       <c r="G84">
-        <v>5.487803257174903</v>
+        <v>5.487803257174921</v>
       </c>
       <c r="H84">
-        <v>57.80462328215605</v>
+        <v>57.80462328215527</v>
       </c>
       <c r="I84">
-        <v>1.979400325567653E-08</v>
+        <v>1.979400325567597E-08</v>
       </c>
       <c r="J84">
-        <v>9.311180242667178E-09</v>
+        <v>9.311180242667085E-09</v>
       </c>
       <c r="K84">
-        <v>0.0001056685583145056</v>
+        <v>0.0001056685583145066</v>
       </c>
       <c r="L84">
-        <v>0.04379992759712829</v>
+        <v>0.04379992759712856</v>
       </c>
       <c r="M84">
-        <v>364.1297450747607</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.04379992759712856</v>
+      </c>
+      <c r="N84">
+        <v>364.1297450747632</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>192.3023149227885</v>
+        <v>192.3023149227881</v>
       </c>
       <c r="B85">
-        <v>3555480.793730191</v>
+        <v>3555480.793730165</v>
       </c>
       <c r="C85">
-        <v>3505.11372878579</v>
+        <v>3505.113728785769</v>
       </c>
       <c r="D85">
-        <v>19625.93118865697</v>
+        <v>19625.93118865705</v>
       </c>
       <c r="E85">
-        <v>5012.12675636607</v>
+        <v>5012.126756366105</v>
       </c>
       <c r="F85">
-        <v>4178.919561164061</v>
+        <v>4178.919561164095</v>
       </c>
       <c r="G85">
-        <v>5.464860338985065</v>
+        <v>5.464860338985054</v>
       </c>
       <c r="H85">
-        <v>60.63420238441156</v>
+        <v>60.63420238441073</v>
       </c>
       <c r="I85">
-        <v>2.182881901573368E-08</v>
+        <v>2.182881901573308E-08</v>
       </c>
       <c r="J85">
-        <v>9.650594416503542E-09</v>
+        <v>9.650594416503451E-09</v>
       </c>
       <c r="K85">
-        <v>0.0001023703276054767</v>
+        <v>0.0001023703276054775</v>
       </c>
       <c r="L85">
-        <v>0.0427769480553911</v>
+        <v>0.04277694805539135</v>
       </c>
       <c r="M85">
-        <v>355.5903083168223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.04277694805539135</v>
+      </c>
+      <c r="N85">
+        <v>355.5903083168249</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>193.7862696976447</v>
+        <v>193.7862696976444</v>
       </c>
       <c r="B86">
-        <v>3723395.603058534</v>
+        <v>3723395.603058445</v>
       </c>
       <c r="C86">
-        <v>3722.053545975765</v>
+        <v>3722.053545975606</v>
       </c>
       <c r="D86">
-        <v>19345.97641602952</v>
+        <v>19345.97641602959</v>
       </c>
       <c r="E86">
-        <v>4839.810733879807</v>
+        <v>4839.810733879905</v>
       </c>
       <c r="F86">
-        <v>4031.913730593923</v>
+        <v>4031.913730594</v>
       </c>
       <c r="G86">
-        <v>5.445969148120379</v>
+        <v>5.445969148120365</v>
       </c>
       <c r="H86">
-        <v>63.80573713255155</v>
+        <v>63.8057371325504</v>
       </c>
       <c r="I86">
-        <v>2.419429074731365E-08</v>
+        <v>2.419429074731289E-08</v>
       </c>
       <c r="J86">
-        <v>1.000816220091709E-08</v>
+        <v>1.0008162200917E-08</v>
       </c>
       <c r="K86">
-        <v>9.911063435663668E-05</v>
+        <v>9.911063435663754E-05</v>
       </c>
       <c r="L86">
-        <v>0.04176057659132313</v>
+        <v>0.04176057659132338</v>
       </c>
       <c r="M86">
-        <v>346.9405712789555</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.04176057659132338</v>
+      </c>
+      <c r="N86">
+        <v>346.9405712789581</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>195.270224472501</v>
+        <v>195.2702244725006</v>
       </c>
       <c r="B87">
-        <v>3897145.268849196</v>
+        <v>3897145.26884916</v>
       </c>
       <c r="C87">
-        <v>3954.768677111039</v>
+        <v>3954.768677110994</v>
       </c>
       <c r="D87">
-        <v>19056.96315276422</v>
+        <v>19056.96315276432</v>
       </c>
       <c r="E87">
-        <v>4659.637741377535</v>
+        <v>4659.637741377582</v>
       </c>
       <c r="F87">
-        <v>3878.708161541653</v>
+        <v>3878.708161541696</v>
       </c>
       <c r="G87">
-        <v>5.431601152548121</v>
+        <v>5.431601152548133</v>
       </c>
       <c r="H87">
-        <v>67.39189278444205</v>
+        <v>67.39189278444086</v>
       </c>
       <c r="I87">
-        <v>2.69686202932744E-08</v>
+        <v>2.696862029327337E-08</v>
       </c>
       <c r="J87">
-        <v>1.038565135667804E-08</v>
+        <v>1.038565135667792E-08</v>
       </c>
       <c r="K87">
-        <v>9.58861764081465E-05</v>
+        <v>9.588617640814755E-05</v>
       </c>
       <c r="L87">
-        <v>0.04075232251037608</v>
+        <v>0.04075232251037641</v>
       </c>
       <c r="M87">
-        <v>338.174394062615</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.04075232251037641</v>
+      </c>
+      <c r="N87">
+        <v>338.1743940626181</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>196.7541792473572</v>
+        <v>196.7541792473569</v>
       </c>
       <c r="B88">
-        <v>4076869.015392051</v>
+        <v>4076869.015392059</v>
       </c>
       <c r="C88">
-        <v>4204.633965517954</v>
+        <v>4204.633965518012</v>
       </c>
       <c r="D88">
-        <v>18758.14033396767</v>
+        <v>18758.14033396776</v>
       </c>
       <c r="E88">
-        <v>4471.173930569186</v>
+        <v>4471.173930569191</v>
       </c>
       <c r="F88">
-        <v>3718.899286708082</v>
+        <v>3718.899286708097</v>
       </c>
       <c r="G88">
-        <v>5.422280396985933</v>
+        <v>5.422280396985911</v>
       </c>
       <c r="H88">
-        <v>71.48807118931137</v>
+        <v>71.48807118930949</v>
       </c>
       <c r="I88">
-        <v>3.025570629813841E-08</v>
+        <v>3.025570629813706E-08</v>
       </c>
       <c r="J88">
-        <v>1.07851167836797E-08</v>
+        <v>1.078511678367958E-08</v>
       </c>
       <c r="K88">
-        <v>9.26935173149852E-05</v>
+        <v>9.269351731498617E-05</v>
       </c>
       <c r="L88">
-        <v>0.0397534976760626</v>
+        <v>0.03975349767606291</v>
       </c>
       <c r="M88">
-        <v>329.2846149377581</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.03975349767606291</v>
+      </c>
+      <c r="N88">
+        <v>329.2846149377614</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>198.2381340222135</v>
+        <v>198.2381340222131</v>
       </c>
       <c r="B89">
-        <v>4262694.855160494</v>
+        <v>4262694.855160446</v>
       </c>
       <c r="C89">
-        <v>4473.057453525201</v>
+        <v>4473.057453525118</v>
       </c>
       <c r="D89">
-        <v>18448.61095101369</v>
+        <v>18448.61095101377</v>
       </c>
       <c r="E89">
-        <v>4274.00245001659</v>
+        <v>4274.002450016657</v>
       </c>
       <c r="F89">
-        <v>3552.089033806409</v>
+        <v>3552.089033806466</v>
       </c>
       <c r="G89">
-        <v>5.418594949625668</v>
+        <v>5.418594949625731</v>
       </c>
       <c r="H89">
-        <v>76.22186911459299</v>
+        <v>76.22186911459187</v>
       </c>
       <c r="I89">
-        <v>3.419639061589011E-08</v>
+        <v>3.419639061588905E-08</v>
       </c>
       <c r="J89">
-        <v>1.120898340008696E-08</v>
+        <v>1.120898340008685E-08</v>
       </c>
       <c r="K89">
-        <v>8.952892872011974E-05</v>
+        <v>8.952892872012053E-05</v>
       </c>
       <c r="L89">
-        <v>0.03876510944500713</v>
+        <v>0.03876510944500738</v>
       </c>
       <c r="M89">
-        <v>320.2626985168397</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.03876510944500738</v>
+      </c>
+      <c r="N89">
+        <v>320.2626985168417</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>199.7220887970697</v>
+        <v>199.7220887970694</v>
       </c>
       <c r="B90">
-        <v>4454732.594627921</v>
+        <v>4454732.594627853</v>
       </c>
       <c r="C90">
-        <v>4761.452588729039</v>
+        <v>4761.452588728917</v>
       </c>
       <c r="D90">
-        <v>18127.28123402999</v>
+        <v>18127.28123403005</v>
       </c>
       <c r="E90">
-        <v>4067.723568176052</v>
+        <v>4067.723568176125</v>
       </c>
       <c r="F90">
-        <v>3377.88830375779</v>
+        <v>3377.888303757848</v>
       </c>
       <c r="G90">
-        <v>5.421213584563515</v>
+        <v>5.42121358456353</v>
       </c>
       <c r="H90">
-        <v>81.76767713410514</v>
+        <v>81.76767713410489</v>
       </c>
       <c r="I90">
-        <v>3.89860852275578E-08</v>
+        <v>3.898608522755725E-08</v>
       </c>
       <c r="J90">
-        <v>1.166016376675951E-08</v>
+        <v>1.166016376675942E-08</v>
       </c>
       <c r="K90">
-        <v>8.63881550530279E-05</v>
+        <v>8.638815505302847E-05</v>
       </c>
       <c r="L90">
-        <v>0.03778773395375531</v>
+        <v>0.0377877339537555</v>
       </c>
       <c r="M90">
-        <v>311.0982115295382</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.0377877339537555</v>
+      </c>
+      <c r="N90">
+        <v>311.0982115295394</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>201.206043571926</v>
+        <v>201.2060435719256</v>
       </c>
       <c r="B91">
-        <v>4653065.638597807</v>
+        <v>4653065.63859769</v>
       </c>
       <c r="C91">
-        <v>5071.227295953748</v>
+        <v>5071.227295953478</v>
       </c>
       <c r="D91">
-        <v>17792.78677856202</v>
+        <v>17792.78677856208</v>
       </c>
       <c r="E91">
-        <v>3851.935719091141</v>
+        <v>3851.935719091287</v>
       </c>
       <c r="F91">
-        <v>3195.907560189286</v>
+        <v>3195.9075601894</v>
       </c>
       <c r="G91">
-        <v>5.430910616199571</v>
+        <v>5.430910616199582</v>
       </c>
       <c r="H91">
-        <v>88.37002398589257</v>
+        <v>88.37002398589213</v>
       </c>
       <c r="I91">
-        <v>4.490339976486813E-08</v>
+        <v>4.490339976486739E-08</v>
       </c>
       <c r="J91">
-        <v>1.214222898340303E-08</v>
+        <v>1.214222898340293E-08</v>
       </c>
       <c r="K91">
-        <v>8.326606686298902E-05</v>
+        <v>8.326606686298959E-05</v>
       </c>
       <c r="L91">
-        <v>0.03682136117980202</v>
+        <v>0.03682136117980218</v>
       </c>
       <c r="M91">
-        <v>301.7780377644985</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.03682136117980218</v>
+      </c>
+      <c r="N91">
+        <v>301.7780377644997</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>202.6899983467822</v>
+        <v>202.6899983467818</v>
       </c>
       <c r="B92">
-        <v>4857742.296572597</v>
+        <v>4857742.296572647</v>
       </c>
       <c r="C92">
-        <v>5403.819319102286</v>
+        <v>5403.819319102523</v>
       </c>
       <c r="D92">
-        <v>17443.38276590214</v>
+        <v>17443.38276590237</v>
       </c>
       <c r="E92">
-        <v>3626.181438502513</v>
+        <v>3626.18143850248</v>
       </c>
       <c r="F92">
-        <v>3005.721591961661</v>
+        <v>3005.72159196166</v>
       </c>
       <c r="G92">
-        <v>5.448603569430278</v>
+        <v>5.448603569430207</v>
       </c>
       <c r="H92">
-        <v>96.38248082852282</v>
+        <v>96.38248082851493</v>
       </c>
       <c r="I92">
-        <v>5.23586156757942E-08</v>
+        <v>5.235861567578743E-08</v>
       </c>
       <c r="J92">
-        <v>1.265966365080261E-08</v>
+        <v>1.26596636508023E-08</v>
       </c>
       <c r="K92">
-        <v>8.015615044266243E-05</v>
+        <v>8.015615044266445E-05</v>
       </c>
       <c r="L92">
-        <v>0.03586519667814646</v>
+        <v>0.03586519667814705</v>
       </c>
       <c r="M92">
-        <v>292.2851979358764</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.03586519667814705</v>
+      </c>
+      <c r="N92">
+        <v>292.2851979358841</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>204.1739531216384</v>
+        <v>204.173953121638</v>
       </c>
       <c r="B93">
-        <v>5068767.774497394</v>
+        <v>5068767.774497406</v>
       </c>
       <c r="C93">
-        <v>5760.82247861067</v>
+        <v>5760.822478610811</v>
       </c>
       <c r="D93">
-        <v>17076.77624468126</v>
+        <v>17076.77624468148</v>
       </c>
       <c r="E93">
-        <v>3389.836759449228</v>
+        <v>3389.83675944923</v>
       </c>
       <c r="F93">
-        <v>2806.7902785752</v>
+        <v>2806.790278575221</v>
       </c>
       <c r="G93">
-        <v>5.475411480721457</v>
+        <v>5.475411480721389</v>
       </c>
       <c r="H93">
-        <v>106.3357573046667</v>
+        <v>106.335757304657</v>
       </c>
       <c r="I93">
-        <v>6.197994617181353E-08</v>
+        <v>6.197994617180494E-08</v>
       </c>
       <c r="J93">
-        <v>1.321825839782293E-08</v>
+        <v>1.321825839782261E-08</v>
       </c>
       <c r="K93">
-        <v>7.704974616613414E-05</v>
+        <v>7.704974616613608E-05</v>
       </c>
       <c r="L93">
-        <v>0.03491739281332055</v>
+        <v>0.03491739281332109</v>
       </c>
       <c r="M93">
-        <v>282.5970581313781</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.03491739281332109</v>
+      </c>
+      <c r="N93">
+        <v>282.5970581313855</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>205.6579078964947</v>
+        <v>205.6579078964943</v>
       </c>
       <c r="B94">
-        <v>5286098.364276174</v>
+        <v>5286098.364276076</v>
       </c>
       <c r="C94">
-        <v>6144.265719987167</v>
+        <v>6144.265719986907</v>
       </c>
       <c r="D94">
-        <v>16689.86023940841</v>
+        <v>16689.86023940843</v>
       </c>
       <c r="E94">
-        <v>3141.916167958461</v>
+        <v>3141.91616795858</v>
       </c>
       <c r="F94">
-        <v>2598.310946412648</v>
+        <v>2598.31094641274</v>
       </c>
       <c r="G94">
-        <v>5.512747572259915</v>
+        <v>5.512747572259975</v>
       </c>
       <c r="H94">
-        <v>119.0641990440479</v>
+        <v>119.0641990440497</v>
       </c>
       <c r="I94">
-        <v>7.477657910033381E-08</v>
+        <v>7.477657910033475E-08</v>
       </c>
       <c r="J94">
-        <v>1.382573839720651E-08</v>
+        <v>1.382573839720644E-08</v>
       </c>
       <c r="K94">
-        <v>7.39348756056927E-05</v>
+        <v>7.393487560569285E-05</v>
       </c>
       <c r="L94">
-        <v>0.03397465842641777</v>
+        <v>0.03397465842641784</v>
       </c>
       <c r="M94">
-        <v>272.682543621331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.03397465842641784</v>
+      </c>
+      <c r="N94">
+        <v>272.6825436213305</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>207.141862671351</v>
+        <v>207.1418626713506</v>
       </c>
       <c r="B95">
-        <v>5509639.281912027</v>
+        <v>5509639.281912091</v>
       </c>
       <c r="C95">
-        <v>6557.134195576959</v>
+        <v>6557.134195577403</v>
       </c>
       <c r="D95">
-        <v>16278.27035577121</v>
+        <v>16278.27035577148</v>
       </c>
       <c r="E95">
-        <v>2880.750948062248</v>
+        <v>2880.750948062137</v>
       </c>
       <c r="F95">
-        <v>2378.96572984747</v>
+        <v>2378.965729847401</v>
       </c>
       <c r="G95">
-        <v>5.562472503236533</v>
+        <v>5.56247250323644</v>
       </c>
       <c r="H95">
-        <v>135.9588375348151</v>
+        <v>135.9588375347988</v>
       </c>
       <c r="I95">
-        <v>9.247088532301318E-08</v>
+        <v>9.247088532299713E-08</v>
       </c>
       <c r="J95">
-        <v>1.449282243283781E-08</v>
+        <v>1.449282243283741E-08</v>
       </c>
       <c r="K95">
-        <v>7.079433777761965E-05</v>
+        <v>7.079433777762166E-05</v>
       </c>
       <c r="L95">
-        <v>0.03303164542593863</v>
+        <v>0.03303164542593919</v>
       </c>
       <c r="M95">
-        <v>262.4976018717321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.03303164542593919</v>
+      </c>
+      <c r="N95">
+        <v>262.4976018717398</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>208.6258174462072</v>
+        <v>208.6258174462068</v>
       </c>
       <c r="B96">
-        <v>5739247.022007017</v>
+        <v>5739247.022006874</v>
       </c>
       <c r="C96">
-        <v>7004.293430642042</v>
+        <v>7004.293430641544</v>
       </c>
       <c r="D96">
-        <v>15835.59259586519</v>
+        <v>15835.59259586504</v>
       </c>
       <c r="E96">
-        <v>2603.455205397782</v>
+        <v>2603.455205397936</v>
       </c>
       <c r="F96">
-        <v>2146.492388660834</v>
+        <v>2146.492388660942</v>
       </c>
       <c r="G96">
-        <v>5.627163194733026</v>
+        <v>5.627163194733151</v>
       </c>
       <c r="H96">
-        <v>159.5241918600297</v>
+        <v>159.5241918600509</v>
       </c>
       <c r="I96">
-        <v>1.182439251800079E-07</v>
+        <v>1.182439251800273E-07</v>
       </c>
       <c r="J96">
-        <v>1.523513288250893E-08</v>
+        <v>1.523513288250914E-08</v>
       </c>
       <c r="K96">
-        <v>6.760237418868731E-05</v>
+        <v>6.760237418868622E-05</v>
       </c>
       <c r="L96">
-        <v>0.03207989529078376</v>
+        <v>0.03207989529078349</v>
       </c>
       <c r="M96">
-        <v>251.9772574519848</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.03207989529078349</v>
+      </c>
+      <c r="N96">
+        <v>251.9772574519792</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>210.1097722210635</v>
+        <v>210.1097722210631</v>
       </c>
       <c r="B97">
-        <v>5974736.121474526</v>
+        <v>5974736.121474395</v>
       </c>
       <c r="C97">
-        <v>7494.201138048747</v>
+        <v>7494.201138048183</v>
       </c>
       <c r="D97">
-        <v>15351.8085055346</v>
+        <v>15351.80850553447</v>
       </c>
       <c r="E97">
-        <v>2304.959651488671</v>
+        <v>2304.95965148885</v>
       </c>
       <c r="F97">
-        <v>1896.899521466952</v>
+        <v>1896.899521467079</v>
       </c>
       <c r="G97">
-        <v>5.710626862513315</v>
+        <v>5.710626862513423</v>
       </c>
       <c r="H97">
-        <v>194.7704947656538</v>
+        <v>194.770494765686</v>
       </c>
       <c r="I97">
-        <v>1.586397550095208E-07</v>
+        <v>1.586397550095518E-07</v>
       </c>
       <c r="J97">
-        <v>1.60769736570981E-08</v>
+        <v>1.60769736570983E-08</v>
       </c>
       <c r="K97">
-        <v>6.431819443625561E-05</v>
+        <v>6.431819443625463E-05</v>
       </c>
       <c r="L97">
-        <v>0.03110583259760534</v>
+        <v>0.03110583259760513</v>
       </c>
       <c r="M97">
-        <v>241.0201997168601</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.03110583259760513</v>
+      </c>
+      <c r="N97">
+        <v>241.0201997168549</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>211.5937269959197</v>
+        <v>211.5937269959193</v>
       </c>
       <c r="B98">
-        <v>6215889.23615695</v>
+        <v>6215889.236156915</v>
       </c>
       <c r="C98">
-        <v>8042.534661938415</v>
+        <v>8042.534661938529</v>
       </c>
       <c r="D98">
-        <v>14809.81310212607</v>
+        <v>14809.81310212645</v>
       </c>
       <c r="E98">
-        <v>1975.959193808803</v>
+        <v>1975.959193808855</v>
       </c>
       <c r="F98">
-        <v>1622.796521995412</v>
+        <v>1622.79652199547</v>
       </c>
       <c r="G98">
-        <v>5.819016162642476</v>
+        <v>5.81901616264232</v>
       </c>
       <c r="H98">
-        <v>253.3911348649754</v>
+        <v>253.3911348648989</v>
       </c>
       <c r="I98">
-        <v>2.294166375093921E-07</v>
+        <v>2.294166375093055E-07</v>
       </c>
       <c r="J98">
-        <v>1.705984595023439E-08</v>
+        <v>1.705984595023371E-08</v>
       </c>
       <c r="K98">
-        <v>6.087153357070791E-05</v>
+        <v>6.087153357071029E-05</v>
       </c>
       <c r="L98">
-        <v>0.03008639983341497</v>
+        <v>0.0300863998334156</v>
       </c>
       <c r="M98">
-        <v>229.4543983866049</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.0300863998334156</v>
+      </c>
+      <c r="N98">
+        <v>229.4543983866143</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>213.077681770776</v>
+        <v>213.0776817707755</v>
       </c>
       <c r="B99">
-        <v>6462468.838179574</v>
+        <v>6462468.838179627</v>
       </c>
       <c r="C99">
-        <v>8681.825108536255</v>
+        <v>8681.825108537296</v>
       </c>
       <c r="D99">
-        <v>14175.88601626926</v>
+        <v>14175.88601627013</v>
       </c>
       <c r="E99">
-        <v>1597.41109505803</v>
+        <v>1597.411095057905</v>
       </c>
       <c r="F99">
-        <v>1308.921146511959</v>
+        <v>1308.921146511894</v>
       </c>
       <c r="G99">
-        <v>5.963770898889953</v>
+        <v>5.963770898889565</v>
       </c>
       <c r="H99">
-        <v>370.475247229278</v>
+        <v>370.4752472289628</v>
       </c>
       <c r="I99">
-        <v>3.796104156645274E-07</v>
+        <v>3.796104156641365E-07</v>
       </c>
       <c r="J99">
-        <v>1.826589588916007E-08</v>
+        <v>1.826589588915848E-08</v>
       </c>
       <c r="K99">
-        <v>5.712311733681495E-05</v>
+        <v>5.712311733682004E-05</v>
       </c>
       <c r="L99">
-        <v>0.02897747704429305</v>
+        <v>0.02897747704429439</v>
       </c>
       <c r="M99">
-        <v>216.9429119538371</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.02897747704429439</v>
+      </c>
+      <c r="N99">
+        <v>216.9429119538571</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>214.5616365456322</v>
+        <v>214.5616365456318</v>
       </c>
       <c r="B100">
-        <v>6714228.814014838</v>
+        <v>6714228.814015064</v>
       </c>
       <c r="C100">
-        <v>9498.968547258848</v>
+        <v>9498.968547264032</v>
       </c>
       <c r="D100">
-        <v>13362.23410378633</v>
+        <v>13362.23410378994</v>
       </c>
       <c r="E100">
-        <v>1118.979934152287</v>
+        <v>1118.979934151651</v>
       </c>
       <c r="F100">
-        <v>914.6202731143709</v>
+        <v>914.6202731139762</v>
       </c>
       <c r="G100">
-        <v>6.172690867533436</v>
+        <v>6.172690867531894</v>
       </c>
       <c r="H100">
-        <v>721.4793697299855</v>
+        <v>721.4793697260769</v>
       </c>
       <c r="I100">
-        <v>8.660966572443016E-07</v>
+        <v>8.660966572389793E-07</v>
       </c>
       <c r="J100">
-        <v>1.99107274510828E-08</v>
+        <v>1.991072745107563E-08</v>
       </c>
       <c r="K100">
-        <v>5.270886852731097E-05</v>
+        <v>5.270886852733021E-05</v>
       </c>
       <c r="L100">
-        <v>0.02766971733368476</v>
+        <v>0.02766971733368968</v>
       </c>
       <c r="M100">
-        <v>202.6124231168392</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.02766971733368968</v>
+      </c>
+      <c r="N100">
+        <v>202.6124231169093</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>216.0455913204885</v>
+        <v>216.0455913204881</v>
       </c>
       <c r="B101">
-        <v>6970923.218328722</v>
+        <v>6970923.213975495</v>
       </c>
       <c r="C101">
-        <v>11470.18150574502</v>
+        <v>11470.81129265484</v>
       </c>
       <c r="D101">
-        <v>11476.54851806408</v>
+        <v>11475.94681677985</v>
       </c>
       <c r="E101">
-        <v>1.835058024368931</v>
+        <v>1.480125886917669</v>
       </c>
       <c r="F101">
-        <v>1.497891536892181</v>
+        <v>1.208173791006945</v>
       </c>
       <c r="G101">
-        <v>6.694193471147189</v>
+        <v>6.694354547918955</v>
       </c>
       <c r="H101">
-        <v>6304688.164317643</v>
+        <v>7851211.561445517</v>
       </c>
       <c r="I101">
-        <v>0.01085048824980935</v>
+        <v>0.0135136083144516</v>
       </c>
       <c r="J101">
-        <v>2.42285407294436E-08</v>
+        <v>2.423005286455538E-08</v>
       </c>
       <c r="K101">
-        <v>4.389877613942368E-05</v>
+        <v>4.389623686808881E-05</v>
       </c>
       <c r="L101">
-        <v>0.02511813963169546</v>
+        <v>0.02511743679199635</v>
       </c>
       <c r="M101">
-        <v>177.5501074377143</v>
+        <v>0.02511743679199635</v>
+      </c>
+      <c r="N101">
+        <v>177.5439468702607</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
